--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -1,41 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\Documents\Mi Ordenador\Programación\Proyectos Python\Project2 - 16pf\16-pftest\respuestas\registro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70EFAE-BC7E-49F4-9FDF-88DA6C5ACF9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23775" yWindow="3060" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Empresa donde trabaja</t>
+  </si>
+  <si>
+    <t>Cargo que ocupa</t>
+  </si>
+  <si>
+    <t>¿Ha consumido drogas?</t>
+  </si>
+  <si>
+    <t>¿Tiene algún desorden mental?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,98 +94,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J1001" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:J1001"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J1001" totalsRowShown="0">
+  <autoFilter ref="A1:J1001" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="Nombre"/>
-    <tableColumn id="3" name="Apellido"/>
-    <tableColumn id="4" name="Cedula"/>
-    <tableColumn id="5" name="Fecha de nacimiento"/>
-    <tableColumn id="6" name="Estado civil"/>
-    <tableColumn id="7" name="Empresa donde trabaja"/>
-    <tableColumn id="8" name="Cargo que ocupa"/>
-    <tableColumn id="9" name="¿Ha consumido drogas?"/>
-    <tableColumn id="10" name="¿Tiene algún desorden mental?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Apellido"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cedula"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha de nacimiento"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estado civil"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Empresa donde trabaja"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cargo que ocupa"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="¿Ha consumido drogas?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="¿Tiene algún desorden mental?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,5122 +428,5053 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.5703125" customWidth="1" min="5" max="5"/>
-    <col width="28.140625" customWidth="1" min="6" max="6"/>
-    <col width="32.140625" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="37.28515625" customWidth="1" min="9" max="9"/>
-    <col width="35.7109375" customWidth="1" min="10" max="10"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Apellido</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cedula</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Fecha de nacimiento</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Estado civil</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Empresa donde trabaja</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cargo que ocupa</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>¿Ha consumido drogas?</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>¿Tiene algún desorden mental?</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="n">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="n">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="n">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="n">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="n">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="n">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="n">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="n">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="n">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="n">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="n">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="n">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="n">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="n">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="n">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="n">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="n">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="n">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="n">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="n">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="n">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="n">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="n">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="n">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="n">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="n">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="n">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="n">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="n">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="n">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="n">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="n">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="n">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="n">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="n">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="n">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="n">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="n">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="n">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="n">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="n">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="n">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="n">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="n">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="n">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="n">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="n">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="n">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="n">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="n">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="n">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="n">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="n">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="n">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="n">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="n">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="n">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="n">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="n">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="n">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="n">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="n">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="n">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="n">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="n">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="n">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="n">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="n">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="n">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="n">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="n">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="n">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="n">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="n">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="n">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="n">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="n">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="n">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="n">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="n">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="n">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="n">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="n">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="n">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="n">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="n">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="n">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="n">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="n">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="n">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="n">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="n">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="n">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="n">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="n">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="n">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="n">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="n">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="n">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>400</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="n">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>401</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="n">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>402</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="n">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>403</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="n">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>404</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="n">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
         <v>405</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="n">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
         <v>406</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="n">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>407</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="n">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
         <v>408</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="n">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
         <v>409</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="n">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
         <v>410</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="n">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
         <v>411</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="n">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
         <v>412</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="n">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
         <v>413</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="n">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
         <v>414</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="n">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
         <v>415</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="n">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
         <v>416</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="n">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
         <v>417</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="n">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
         <v>418</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="n">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
         <v>419</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="n">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
         <v>420</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="n">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
         <v>421</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="n">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>422</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="n">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
         <v>423</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="n">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
         <v>424</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="n">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
         <v>425</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="n">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
         <v>426</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="n">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
         <v>427</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="n">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
         <v>428</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="n">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>429</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="n">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
         <v>430</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="n">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
         <v>431</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="n">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
         <v>432</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="n">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
         <v>433</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="n">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
         <v>434</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="n">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
         <v>435</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="n">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
         <v>436</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="n">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
         <v>437</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="n">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
         <v>438</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="n">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
         <v>439</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="n">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
         <v>440</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="n">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
         <v>441</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="n">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
         <v>442</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="n">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
         <v>443</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="n">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
         <v>444</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="n">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
         <v>445</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="n">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
         <v>446</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="n">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
         <v>447</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="n">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
         <v>448</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="n">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
         <v>449</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="n">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
         <v>450</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="n">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
         <v>451</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="n">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
         <v>452</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="n">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
         <v>453</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" t="n">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
         <v>454</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="n">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
         <v>455</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="n">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
         <v>456</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="n">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
         <v>457</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" t="n">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
         <v>458</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" t="n">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
         <v>459</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" t="n">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
         <v>460</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" t="n">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
         <v>461</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" t="n">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
         <v>462</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" t="n">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
         <v>463</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" t="n">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
         <v>464</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" t="n">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
         <v>465</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="n">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
         <v>466</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" t="n">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
         <v>467</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" t="n">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
         <v>468</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" t="n">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
         <v>469</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" t="n">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
         <v>470</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" t="n">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
         <v>471</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" t="n">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
         <v>472</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" t="n">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
         <v>473</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" t="n">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
         <v>474</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" t="n">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
         <v>475</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" t="n">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
         <v>476</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" t="n">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
         <v>477</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" t="n">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
         <v>478</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="n">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
         <v>479</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" t="n">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="n">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="n">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="n">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="n">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" t="n">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="n">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="n">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" t="n">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" t="n">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="n">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" t="n">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="n">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="n">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="n">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" t="n">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" t="n">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" t="n">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" t="n">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" t="n">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" t="n">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" t="n">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" t="n">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" t="n">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" t="n">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" t="n">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" t="n">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" t="n">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" t="n">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" t="n">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" t="n">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" t="n">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" t="n">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" t="n">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" t="n">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" t="n">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" t="n">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" t="n">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" t="n">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" t="n">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" t="n">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" t="n">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" t="n">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" t="n">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" t="n">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" t="n">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" t="n">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" t="n">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" t="n">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" t="n">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" t="n">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" t="n">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" t="n">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" t="n">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" t="n">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" t="n">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" t="n">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" t="n">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" t="n">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
         <v>538</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" t="n">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
         <v>539</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" t="n">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
         <v>540</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" t="n">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
         <v>541</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" t="n">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
         <v>542</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" t="n">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
         <v>543</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" t="n">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" t="n">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" t="n">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" t="n">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" t="n">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550">
-      <c r="A550" t="n">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" t="n">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" t="n">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
         <v>551</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" t="n">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
         <v>552</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" t="n">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
         <v>553</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" t="n">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
         <v>554</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" t="n">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" t="n">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
         <v>556</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" t="n">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
         <v>557</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" t="n">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" t="n">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
         <v>559</v>
       </c>
     </row>
-    <row r="561">
-      <c r="A561" t="n">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
         <v>560</v>
       </c>
     </row>
-    <row r="562">
-      <c r="A562" t="n">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
         <v>561</v>
       </c>
     </row>
-    <row r="563">
-      <c r="A563" t="n">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
         <v>562</v>
       </c>
     </row>
-    <row r="564">
-      <c r="A564" t="n">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
         <v>563</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" t="n">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
         <v>564</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" t="n">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
         <v>565</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" t="n">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
         <v>566</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" t="n">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
         <v>567</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" t="n">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
         <v>568</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" t="n">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
         <v>569</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" t="n">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
         <v>570</v>
       </c>
     </row>
-    <row r="572">
-      <c r="A572" t="n">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
         <v>571</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" t="n">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
         <v>572</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" t="n">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
         <v>573</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" t="n">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
         <v>574</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" t="n">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
         <v>575</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" t="n">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" t="n">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" t="n">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" t="n">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" t="n">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" t="n">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
         <v>581</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" t="n">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
         <v>582</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" t="n">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
         <v>583</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" t="n">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
         <v>584</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" t="n">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
         <v>585</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" t="n">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
         <v>586</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" t="n">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
         <v>587</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" t="n">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
         <v>588</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" t="n">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
         <v>589</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" t="n">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
         <v>590</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" t="n">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
         <v>591</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" t="n">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" t="n">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" t="n">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" t="n">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" t="n">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" t="n">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" t="n">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" t="n">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" t="n">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
         <v>600</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" t="n">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
         <v>601</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" t="n">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
         <v>602</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" t="n">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
         <v>603</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" t="n">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
         <v>604</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" t="n">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607">
-      <c r="A607" t="n">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" t="n">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
         <v>607</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" t="n">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
         <v>608</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" t="n">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
         <v>609</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" t="n">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
         <v>610</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" t="n">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
         <v>611</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" t="n">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
         <v>612</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" t="n">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
         <v>613</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" t="n">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
         <v>614</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" t="n">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
         <v>615</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" t="n">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
         <v>616</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" t="n">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
         <v>617</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" t="n">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
         <v>618</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" t="n">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
         <v>619</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" t="n">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
         <v>620</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" t="n">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
         <v>621</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" t="n">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
         <v>622</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" t="n">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
         <v>623</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" t="n">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
         <v>624</v>
       </c>
     </row>
-    <row r="626">
-      <c r="A626" t="n">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
         <v>625</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" t="n">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
         <v>626</v>
       </c>
     </row>
-    <row r="628">
-      <c r="A628" t="n">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
         <v>627</v>
       </c>
     </row>
-    <row r="629">
-      <c r="A629" t="n">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
         <v>628</v>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" t="n">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
         <v>629</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" t="n">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
         <v>630</v>
       </c>
     </row>
-    <row r="632">
-      <c r="A632" t="n">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
         <v>631</v>
       </c>
     </row>
-    <row r="633">
-      <c r="A633" t="n">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
         <v>632</v>
       </c>
     </row>
-    <row r="634">
-      <c r="A634" t="n">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
         <v>633</v>
       </c>
     </row>
-    <row r="635">
-      <c r="A635" t="n">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
         <v>634</v>
       </c>
     </row>
-    <row r="636">
-      <c r="A636" t="n">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
         <v>635</v>
       </c>
     </row>
-    <row r="637">
-      <c r="A637" t="n">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
         <v>636</v>
       </c>
     </row>
-    <row r="638">
-      <c r="A638" t="n">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
         <v>637</v>
       </c>
     </row>
-    <row r="639">
-      <c r="A639" t="n">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
         <v>638</v>
       </c>
     </row>
-    <row r="640">
-      <c r="A640" t="n">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
         <v>639</v>
       </c>
     </row>
-    <row r="641">
-      <c r="A641" t="n">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
         <v>640</v>
       </c>
     </row>
-    <row r="642">
-      <c r="A642" t="n">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
         <v>641</v>
       </c>
     </row>
-    <row r="643">
-      <c r="A643" t="n">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
         <v>642</v>
       </c>
     </row>
-    <row r="644">
-      <c r="A644" t="n">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
         <v>643</v>
       </c>
     </row>
-    <row r="645">
-      <c r="A645" t="n">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
         <v>644</v>
       </c>
     </row>
-    <row r="646">
-      <c r="A646" t="n">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
         <v>645</v>
       </c>
     </row>
-    <row r="647">
-      <c r="A647" t="n">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
         <v>646</v>
       </c>
     </row>
-    <row r="648">
-      <c r="A648" t="n">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
         <v>647</v>
       </c>
     </row>
-    <row r="649">
-      <c r="A649" t="n">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
         <v>648</v>
       </c>
     </row>
-    <row r="650">
-      <c r="A650" t="n">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
         <v>649</v>
       </c>
     </row>
-    <row r="651">
-      <c r="A651" t="n">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
         <v>650</v>
       </c>
     </row>
-    <row r="652">
-      <c r="A652" t="n">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
         <v>651</v>
       </c>
     </row>
-    <row r="653">
-      <c r="A653" t="n">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
         <v>652</v>
       </c>
     </row>
-    <row r="654">
-      <c r="A654" t="n">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
         <v>653</v>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="n">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
         <v>654</v>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="n">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
         <v>655</v>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="n">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658">
-      <c r="A658" t="n">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659">
-      <c r="A659" t="n">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660">
-      <c r="A660" t="n">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661">
-      <c r="A661" t="n">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662">
-      <c r="A662" t="n">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663">
-      <c r="A663" t="n">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664">
-      <c r="A664" t="n">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665">
-      <c r="A665" t="n">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
         <v>664</v>
       </c>
     </row>
-    <row r="666">
-      <c r="A666" t="n">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
         <v>665</v>
       </c>
     </row>
-    <row r="667">
-      <c r="A667" t="n">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
         <v>666</v>
       </c>
     </row>
-    <row r="668">
-      <c r="A668" t="n">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
         <v>667</v>
       </c>
     </row>
-    <row r="669">
-      <c r="A669" t="n">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
         <v>668</v>
       </c>
     </row>
-    <row r="670">
-      <c r="A670" t="n">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
         <v>669</v>
       </c>
     </row>
-    <row r="671">
-      <c r="A671" t="n">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
         <v>670</v>
       </c>
     </row>
-    <row r="672">
-      <c r="A672" t="n">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
         <v>671</v>
       </c>
     </row>
-    <row r="673">
-      <c r="A673" t="n">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
         <v>672</v>
       </c>
     </row>
-    <row r="674">
-      <c r="A674" t="n">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
         <v>673</v>
       </c>
     </row>
-    <row r="675">
-      <c r="A675" t="n">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
         <v>674</v>
       </c>
     </row>
-    <row r="676">
-      <c r="A676" t="n">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
         <v>675</v>
       </c>
     </row>
-    <row r="677">
-      <c r="A677" t="n">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
         <v>676</v>
       </c>
     </row>
-    <row r="678">
-      <c r="A678" t="n">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
         <v>677</v>
       </c>
     </row>
-    <row r="679">
-      <c r="A679" t="n">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
         <v>678</v>
       </c>
     </row>
-    <row r="680">
-      <c r="A680" t="n">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
         <v>679</v>
       </c>
     </row>
-    <row r="681">
-      <c r="A681" t="n">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
         <v>680</v>
       </c>
     </row>
-    <row r="682">
-      <c r="A682" t="n">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
         <v>681</v>
       </c>
     </row>
-    <row r="683">
-      <c r="A683" t="n">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
         <v>682</v>
       </c>
     </row>
-    <row r="684">
-      <c r="A684" t="n">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685">
-      <c r="A685" t="n">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686">
-      <c r="A686" t="n">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687">
-      <c r="A687" t="n">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688">
-      <c r="A688" t="n">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
         <v>687</v>
       </c>
     </row>
-    <row r="689">
-      <c r="A689" t="n">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690">
-      <c r="A690" t="n">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691">
-      <c r="A691" t="n">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692">
-      <c r="A692" t="n">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693">
-      <c r="A693" t="n">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694">
-      <c r="A694" t="n">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695">
-      <c r="A695" t="n">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696">
-      <c r="A696" t="n">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697">
-      <c r="A697" t="n">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698">
-      <c r="A698" t="n">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699">
-      <c r="A699" t="n">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700">
-      <c r="A700" t="n">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701">
-      <c r="A701" t="n">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
         <v>700</v>
       </c>
     </row>
-    <row r="702">
-      <c r="A702" t="n">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
         <v>701</v>
       </c>
     </row>
-    <row r="703">
-      <c r="A703" t="n">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
         <v>702</v>
       </c>
     </row>
-    <row r="704">
-      <c r="A704" t="n">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
         <v>703</v>
       </c>
     </row>
-    <row r="705">
-      <c r="A705" t="n">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
         <v>704</v>
       </c>
     </row>
-    <row r="706">
-      <c r="A706" t="n">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
         <v>705</v>
       </c>
     </row>
-    <row r="707">
-      <c r="A707" t="n">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
         <v>706</v>
       </c>
     </row>
-    <row r="708">
-      <c r="A708" t="n">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
         <v>707</v>
       </c>
     </row>
-    <row r="709">
-      <c r="A709" t="n">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
         <v>708</v>
       </c>
     </row>
-    <row r="710">
-      <c r="A710" t="n">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
         <v>709</v>
       </c>
     </row>
-    <row r="711">
-      <c r="A711" t="n">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
         <v>710</v>
       </c>
     </row>
-    <row r="712">
-      <c r="A712" t="n">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
         <v>711</v>
       </c>
     </row>
-    <row r="713">
-      <c r="A713" t="n">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
         <v>712</v>
       </c>
     </row>
-    <row r="714">
-      <c r="A714" t="n">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
         <v>713</v>
       </c>
     </row>
-    <row r="715">
-      <c r="A715" t="n">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
         <v>714</v>
       </c>
     </row>
-    <row r="716">
-      <c r="A716" t="n">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
         <v>715</v>
       </c>
     </row>
-    <row r="717">
-      <c r="A717" t="n">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
         <v>716</v>
       </c>
     </row>
-    <row r="718">
-      <c r="A718" t="n">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
         <v>717</v>
       </c>
     </row>
-    <row r="719">
-      <c r="A719" t="n">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
         <v>718</v>
       </c>
     </row>
-    <row r="720">
-      <c r="A720" t="n">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
         <v>719</v>
       </c>
     </row>
-    <row r="721">
-      <c r="A721" t="n">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
         <v>720</v>
       </c>
     </row>
-    <row r="722">
-      <c r="A722" t="n">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
         <v>721</v>
       </c>
     </row>
-    <row r="723">
-      <c r="A723" t="n">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
         <v>722</v>
       </c>
     </row>
-    <row r="724">
-      <c r="A724" t="n">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
         <v>723</v>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="n">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
         <v>724</v>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="n">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
         <v>725</v>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="n">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
         <v>726</v>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="n">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
         <v>727</v>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="n">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
         <v>728</v>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="n">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
         <v>729</v>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="n">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
         <v>730</v>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="n">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
         <v>731</v>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="n">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734">
-      <c r="A734" t="n">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735">
-      <c r="A735" t="n">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736">
-      <c r="A736" t="n">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
         <v>735</v>
       </c>
     </row>
-    <row r="737">
-      <c r="A737" t="n">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
         <v>736</v>
       </c>
     </row>
-    <row r="738">
-      <c r="A738" t="n">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
         <v>737</v>
       </c>
     </row>
-    <row r="739">
-      <c r="A739" t="n">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
         <v>738</v>
       </c>
     </row>
-    <row r="740">
-      <c r="A740" t="n">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
         <v>739</v>
       </c>
     </row>
-    <row r="741">
-      <c r="A741" t="n">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
         <v>740</v>
       </c>
     </row>
-    <row r="742">
-      <c r="A742" t="n">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
         <v>741</v>
       </c>
     </row>
-    <row r="743">
-      <c r="A743" t="n">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
         <v>742</v>
       </c>
     </row>
-    <row r="744">
-      <c r="A744" t="n">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
         <v>743</v>
       </c>
     </row>
-    <row r="745">
-      <c r="A745" t="n">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
         <v>744</v>
       </c>
     </row>
-    <row r="746">
-      <c r="A746" t="n">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
         <v>745</v>
       </c>
     </row>
-    <row r="747">
-      <c r="A747" t="n">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
         <v>746</v>
       </c>
     </row>
-    <row r="748">
-      <c r="A748" t="n">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
         <v>747</v>
       </c>
     </row>
-    <row r="749">
-      <c r="A749" t="n">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
         <v>748</v>
       </c>
     </row>
-    <row r="750">
-      <c r="A750" t="n">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
         <v>749</v>
       </c>
     </row>
-    <row r="751">
-      <c r="A751" t="n">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
         <v>750</v>
       </c>
     </row>
-    <row r="752">
-      <c r="A752" t="n">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
         <v>751</v>
       </c>
     </row>
-    <row r="753">
-      <c r="A753" t="n">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
         <v>752</v>
       </c>
     </row>
-    <row r="754">
-      <c r="A754" t="n">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
         <v>753</v>
       </c>
     </row>
-    <row r="755">
-      <c r="A755" t="n">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
         <v>754</v>
       </c>
     </row>
-    <row r="756">
-      <c r="A756" t="n">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
         <v>755</v>
       </c>
     </row>
-    <row r="757">
-      <c r="A757" t="n">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
         <v>756</v>
       </c>
     </row>
-    <row r="758">
-      <c r="A758" t="n">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
         <v>757</v>
       </c>
     </row>
-    <row r="759">
-      <c r="A759" t="n">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
         <v>758</v>
       </c>
     </row>
-    <row r="760">
-      <c r="A760" t="n">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
         <v>759</v>
       </c>
     </row>
-    <row r="761">
-      <c r="A761" t="n">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
         <v>760</v>
       </c>
     </row>
-    <row r="762">
-      <c r="A762" t="n">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
         <v>761</v>
       </c>
     </row>
-    <row r="763">
-      <c r="A763" t="n">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
         <v>762</v>
       </c>
     </row>
-    <row r="764">
-      <c r="A764" t="n">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
         <v>763</v>
       </c>
     </row>
-    <row r="765">
-      <c r="A765" t="n">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
         <v>764</v>
       </c>
     </row>
-    <row r="766">
-      <c r="A766" t="n">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
         <v>765</v>
       </c>
     </row>
-    <row r="767">
-      <c r="A767" t="n">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
         <v>766</v>
       </c>
     </row>
-    <row r="768">
-      <c r="A768" t="n">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
         <v>767</v>
       </c>
     </row>
-    <row r="769">
-      <c r="A769" t="n">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
         <v>768</v>
       </c>
     </row>
-    <row r="770">
-      <c r="A770" t="n">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
         <v>769</v>
       </c>
     </row>
-    <row r="771">
-      <c r="A771" t="n">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
         <v>770</v>
       </c>
     </row>
-    <row r="772">
-      <c r="A772" t="n">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
         <v>771</v>
       </c>
     </row>
-    <row r="773">
-      <c r="A773" t="n">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
         <v>772</v>
       </c>
     </row>
-    <row r="774">
-      <c r="A774" t="n">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
         <v>773</v>
       </c>
     </row>
-    <row r="775">
-      <c r="A775" t="n">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
         <v>774</v>
       </c>
     </row>
-    <row r="776">
-      <c r="A776" t="n">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
         <v>775</v>
       </c>
     </row>
-    <row r="777">
-      <c r="A777" t="n">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
         <v>776</v>
       </c>
     </row>
-    <row r="778">
-      <c r="A778" t="n">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
         <v>777</v>
       </c>
     </row>
-    <row r="779">
-      <c r="A779" t="n">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
         <v>778</v>
       </c>
     </row>
-    <row r="780">
-      <c r="A780" t="n">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
         <v>779</v>
       </c>
     </row>
-    <row r="781">
-      <c r="A781" t="n">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
         <v>780</v>
       </c>
     </row>
-    <row r="782">
-      <c r="A782" t="n">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
         <v>781</v>
       </c>
     </row>
-    <row r="783">
-      <c r="A783" t="n">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
         <v>782</v>
       </c>
     </row>
-    <row r="784">
-      <c r="A784" t="n">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
         <v>783</v>
       </c>
     </row>
-    <row r="785">
-      <c r="A785" t="n">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
         <v>784</v>
       </c>
     </row>
-    <row r="786">
-      <c r="A786" t="n">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
         <v>785</v>
       </c>
     </row>
-    <row r="787">
-      <c r="A787" t="n">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
         <v>786</v>
       </c>
     </row>
-    <row r="788">
-      <c r="A788" t="n">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
         <v>787</v>
       </c>
     </row>
-    <row r="789">
-      <c r="A789" t="n">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790">
-      <c r="A790" t="n">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
         <v>789</v>
       </c>
     </row>
-    <row r="791">
-      <c r="A791" t="n">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
         <v>790</v>
       </c>
     </row>
-    <row r="792">
-      <c r="A792" t="n">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
         <v>791</v>
       </c>
     </row>
-    <row r="793">
-      <c r="A793" t="n">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
         <v>792</v>
       </c>
     </row>
-    <row r="794">
-      <c r="A794" t="n">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
         <v>793</v>
       </c>
     </row>
-    <row r="795">
-      <c r="A795" t="n">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
         <v>794</v>
       </c>
     </row>
-    <row r="796">
-      <c r="A796" t="n">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
         <v>795</v>
       </c>
     </row>
-    <row r="797">
-      <c r="A797" t="n">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
         <v>796</v>
       </c>
     </row>
-    <row r="798">
-      <c r="A798" t="n">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799">
-      <c r="A799" t="n">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
         <v>798</v>
       </c>
     </row>
-    <row r="800">
-      <c r="A800" t="n">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
         <v>799</v>
       </c>
     </row>
-    <row r="801">
-      <c r="A801" t="n">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802">
-      <c r="A802" t="n">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
         <v>801</v>
       </c>
     </row>
-    <row r="803">
-      <c r="A803" t="n">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
         <v>802</v>
       </c>
     </row>
-    <row r="804">
-      <c r="A804" t="n">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
         <v>803</v>
       </c>
     </row>
-    <row r="805">
-      <c r="A805" t="n">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
         <v>804</v>
       </c>
     </row>
-    <row r="806">
-      <c r="A806" t="n">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807">
-      <c r="A807" t="n">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808">
-      <c r="A808" t="n">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809">
-      <c r="A809" t="n">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810">
-      <c r="A810" t="n">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811">
-      <c r="A811" t="n">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812">
-      <c r="A812" t="n">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813">
-      <c r="A813" t="n">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814">
-      <c r="A814" t="n">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815">
-      <c r="A815" t="n">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816">
-      <c r="A816" t="n">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
         <v>815</v>
       </c>
     </row>
-    <row r="817">
-      <c r="A817" t="n">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
         <v>816</v>
       </c>
     </row>
-    <row r="818">
-      <c r="A818" t="n">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
         <v>817</v>
       </c>
     </row>
-    <row r="819">
-      <c r="A819" t="n">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
         <v>818</v>
       </c>
     </row>
-    <row r="820">
-      <c r="A820" t="n">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
         <v>819</v>
       </c>
     </row>
-    <row r="821">
-      <c r="A821" t="n">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
         <v>820</v>
       </c>
     </row>
-    <row r="822">
-      <c r="A822" t="n">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
         <v>821</v>
       </c>
     </row>
-    <row r="823">
-      <c r="A823" t="n">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
         <v>822</v>
       </c>
     </row>
-    <row r="824">
-      <c r="A824" t="n">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
         <v>823</v>
       </c>
     </row>
-    <row r="825">
-      <c r="A825" t="n">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
         <v>824</v>
       </c>
     </row>
-    <row r="826">
-      <c r="A826" t="n">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
         <v>825</v>
       </c>
     </row>
-    <row r="827">
-      <c r="A827" t="n">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
         <v>826</v>
       </c>
     </row>
-    <row r="828">
-      <c r="A828" t="n">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
         <v>827</v>
       </c>
     </row>
-    <row r="829">
-      <c r="A829" t="n">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
         <v>828</v>
       </c>
     </row>
-    <row r="830">
-      <c r="A830" t="n">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
         <v>829</v>
       </c>
     </row>
-    <row r="831">
-      <c r="A831" t="n">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
         <v>830</v>
       </c>
     </row>
-    <row r="832">
-      <c r="A832" t="n">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
         <v>831</v>
       </c>
     </row>
-    <row r="833">
-      <c r="A833" t="n">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
         <v>832</v>
       </c>
     </row>
-    <row r="834">
-      <c r="A834" t="n">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
         <v>833</v>
       </c>
     </row>
-    <row r="835">
-      <c r="A835" t="n">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
         <v>834</v>
       </c>
     </row>
-    <row r="836">
-      <c r="A836" t="n">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
         <v>835</v>
       </c>
     </row>
-    <row r="837">
-      <c r="A837" t="n">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
         <v>836</v>
       </c>
     </row>
-    <row r="838">
-      <c r="A838" t="n">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838">
         <v>837</v>
       </c>
     </row>
-    <row r="839">
-      <c r="A839" t="n">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839">
         <v>838</v>
       </c>
     </row>
-    <row r="840">
-      <c r="A840" t="n">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841">
-      <c r="A841" t="n">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841">
         <v>840</v>
       </c>
     </row>
-    <row r="842">
-      <c r="A842" t="n">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843">
-      <c r="A843" t="n">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843">
         <v>842</v>
       </c>
     </row>
-    <row r="844">
-      <c r="A844" t="n">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844">
         <v>843</v>
       </c>
     </row>
-    <row r="845">
-      <c r="A845" t="n">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845">
         <v>844</v>
       </c>
     </row>
-    <row r="846">
-      <c r="A846" t="n">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846">
         <v>845</v>
       </c>
     </row>
-    <row r="847">
-      <c r="A847" t="n">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847">
         <v>846</v>
       </c>
     </row>
-    <row r="848">
-      <c r="A848" t="n">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848">
         <v>847</v>
       </c>
     </row>
-    <row r="849">
-      <c r="A849" t="n">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850">
-      <c r="A850" t="n">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851">
-      <c r="A851" t="n">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851">
         <v>850</v>
       </c>
     </row>
-    <row r="852">
-      <c r="A852" t="n">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852">
         <v>851</v>
       </c>
     </row>
-    <row r="853">
-      <c r="A853" t="n">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854">
-      <c r="A854" t="n">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855">
-      <c r="A855" t="n">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855">
         <v>854</v>
       </c>
     </row>
-    <row r="856">
-      <c r="A856" t="n">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857">
-      <c r="A857" t="n">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858">
-      <c r="A858" t="n">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859">
-      <c r="A859" t="n">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860">
-      <c r="A860" t="n">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860">
         <v>859</v>
       </c>
     </row>
-    <row r="861">
-      <c r="A861" t="n">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862">
-      <c r="A862" t="n">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863">
-      <c r="A863" t="n">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864">
-      <c r="A864" t="n">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865">
-      <c r="A865" t="n">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866">
-      <c r="A866" t="n">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867">
-      <c r="A867" t="n">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868">
-      <c r="A868" t="n">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868">
         <v>867</v>
       </c>
     </row>
-    <row r="869">
-      <c r="A869" t="n">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870">
-      <c r="A870" t="n">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870">
         <v>869</v>
       </c>
     </row>
-    <row r="871">
-      <c r="A871" t="n">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872">
-      <c r="A872" t="n">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872">
         <v>871</v>
       </c>
     </row>
-    <row r="873">
-      <c r="A873" t="n">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873">
         <v>872</v>
       </c>
     </row>
-    <row r="874">
-      <c r="A874" t="n">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875">
-      <c r="A875" t="n">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876">
-      <c r="A876" t="n">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877">
-      <c r="A877" t="n">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877">
         <v>876</v>
       </c>
     </row>
-    <row r="878">
-      <c r="A878" t="n">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879">
-      <c r="A879" t="n">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879">
         <v>878</v>
       </c>
     </row>
-    <row r="880">
-      <c r="A880" t="n">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880">
         <v>879</v>
       </c>
     </row>
-    <row r="881">
-      <c r="A881" t="n">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881">
         <v>880</v>
       </c>
     </row>
-    <row r="882">
-      <c r="A882" t="n">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882">
         <v>881</v>
       </c>
     </row>
-    <row r="883">
-      <c r="A883" t="n">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884">
-      <c r="A884" t="n">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884">
         <v>883</v>
       </c>
     </row>
-    <row r="885">
-      <c r="A885" t="n">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885">
         <v>884</v>
       </c>
     </row>
-    <row r="886">
-      <c r="A886" t="n">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887">
-      <c r="A887" t="n">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887">
         <v>886</v>
       </c>
     </row>
-    <row r="888">
-      <c r="A888" t="n">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888">
         <v>887</v>
       </c>
     </row>
-    <row r="889">
-      <c r="A889" t="n">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890">
-      <c r="A890" t="n">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891">
-      <c r="A891" t="n">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891">
         <v>890</v>
       </c>
     </row>
-    <row r="892">
-      <c r="A892" t="n">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893">
-      <c r="A893" t="n">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893">
         <v>892</v>
       </c>
     </row>
-    <row r="894">
-      <c r="A894" t="n">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894">
         <v>893</v>
       </c>
     </row>
-    <row r="895">
-      <c r="A895" t="n">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895">
         <v>894</v>
       </c>
     </row>
-    <row r="896">
-      <c r="A896" t="n">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896">
         <v>895</v>
       </c>
     </row>
-    <row r="897">
-      <c r="A897" t="n">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898">
-      <c r="A898" t="n">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899">
-      <c r="A899" t="n">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900">
-      <c r="A900" t="n">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901">
-      <c r="A901" t="n">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902">
-      <c r="A902" t="n">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902">
         <v>901</v>
       </c>
     </row>
-    <row r="903">
-      <c r="A903" t="n">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903">
         <v>902</v>
       </c>
     </row>
-    <row r="904">
-      <c r="A904" t="n">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904">
         <v>903</v>
       </c>
     </row>
-    <row r="905">
-      <c r="A905" t="n">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905">
         <v>904</v>
       </c>
     </row>
-    <row r="906">
-      <c r="A906" t="n">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906">
         <v>905</v>
       </c>
     </row>
-    <row r="907">
-      <c r="A907" t="n">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907">
         <v>906</v>
       </c>
     </row>
-    <row r="908">
-      <c r="A908" t="n">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908">
         <v>907</v>
       </c>
     </row>
-    <row r="909">
-      <c r="A909" t="n">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910">
-      <c r="A910" t="n">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910">
         <v>909</v>
       </c>
     </row>
-    <row r="911">
-      <c r="A911" t="n">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911">
         <v>910</v>
       </c>
     </row>
-    <row r="912">
-      <c r="A912" t="n">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912">
         <v>911</v>
       </c>
     </row>
-    <row r="913">
-      <c r="A913" t="n">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913">
         <v>912</v>
       </c>
     </row>
-    <row r="914">
-      <c r="A914" t="n">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914">
         <v>913</v>
       </c>
     </row>
-    <row r="915">
-      <c r="A915" t="n">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916">
-      <c r="A916" t="n">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917">
-      <c r="A917" t="n">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
         <v>916</v>
       </c>
     </row>
-    <row r="918">
-      <c r="A918" t="n">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919">
-      <c r="A919" t="n">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920">
-      <c r="A920" t="n">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921">
-      <c r="A921" t="n">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922">
-      <c r="A922" t="n">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923">
-      <c r="A923" t="n">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923">
         <v>922</v>
       </c>
     </row>
-    <row r="924">
-      <c r="A924" t="n">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924">
         <v>923</v>
       </c>
     </row>
-    <row r="925">
-      <c r="A925" t="n">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925">
         <v>924</v>
       </c>
     </row>
-    <row r="926">
-      <c r="A926" t="n">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926">
         <v>925</v>
       </c>
     </row>
-    <row r="927">
-      <c r="A927" t="n">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927">
         <v>926</v>
       </c>
     </row>
-    <row r="928">
-      <c r="A928" t="n">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928">
         <v>927</v>
       </c>
     </row>
-    <row r="929">
-      <c r="A929" t="n">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929">
         <v>928</v>
       </c>
     </row>
-    <row r="930">
-      <c r="A930" t="n">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931">
-      <c r="A931" t="n">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932">
-      <c r="A932" t="n">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933">
-      <c r="A933" t="n">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934">
-      <c r="A934" t="n">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935">
-      <c r="A935" t="n">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936">
-      <c r="A936" t="n">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937">
-      <c r="A937" t="n">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938">
-      <c r="A938" t="n">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939">
-      <c r="A939" t="n">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940">
-      <c r="A940" t="n">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941">
-      <c r="A941" t="n">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942">
-      <c r="A942" t="n">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943">
-      <c r="A943" t="n">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944">
-      <c r="A944" t="n">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944">
         <v>943</v>
       </c>
     </row>
-    <row r="945">
-      <c r="A945" t="n">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945">
         <v>944</v>
       </c>
     </row>
-    <row r="946">
-      <c r="A946" t="n">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946">
         <v>945</v>
       </c>
     </row>
-    <row r="947">
-      <c r="A947" t="n">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947">
         <v>946</v>
       </c>
     </row>
-    <row r="948">
-      <c r="A948" t="n">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948">
         <v>947</v>
       </c>
     </row>
-    <row r="949">
-      <c r="A949" t="n">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949">
         <v>948</v>
       </c>
     </row>
-    <row r="950">
-      <c r="A950" t="n">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950">
         <v>949</v>
       </c>
     </row>
-    <row r="951">
-      <c r="A951" t="n">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951">
         <v>950</v>
       </c>
     </row>
-    <row r="952">
-      <c r="A952" t="n">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
         <v>951</v>
       </c>
     </row>
-    <row r="953">
-      <c r="A953" t="n">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
         <v>952</v>
       </c>
     </row>
-    <row r="954">
-      <c r="A954" t="n">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954">
         <v>953</v>
       </c>
     </row>
-    <row r="955">
-      <c r="A955" t="n">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955">
         <v>954</v>
       </c>
     </row>
-    <row r="956">
-      <c r="A956" t="n">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956">
         <v>955</v>
       </c>
     </row>
-    <row r="957">
-      <c r="A957" t="n">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957">
         <v>956</v>
       </c>
     </row>
-    <row r="958">
-      <c r="A958" t="n">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958">
         <v>957</v>
       </c>
     </row>
-    <row r="959">
-      <c r="A959" t="n">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959">
         <v>958</v>
       </c>
     </row>
-    <row r="960">
-      <c r="A960" t="n">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960">
         <v>959</v>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="n">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961">
         <v>960</v>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="n">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962">
         <v>961</v>
       </c>
     </row>
-    <row r="963">
-      <c r="A963" t="n">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963">
         <v>962</v>
       </c>
     </row>
-    <row r="964">
-      <c r="A964" t="n">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964">
         <v>963</v>
       </c>
     </row>
-    <row r="965">
-      <c r="A965" t="n">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965">
         <v>964</v>
       </c>
     </row>
-    <row r="966">
-      <c r="A966" t="n">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966">
         <v>965</v>
       </c>
     </row>
-    <row r="967">
-      <c r="A967" t="n">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967">
         <v>966</v>
       </c>
     </row>
-    <row r="968">
-      <c r="A968" t="n">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968">
         <v>967</v>
       </c>
     </row>
-    <row r="969">
-      <c r="A969" t="n">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969">
         <v>968</v>
       </c>
     </row>
-    <row r="970">
-      <c r="A970" t="n">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970">
         <v>969</v>
       </c>
     </row>
-    <row r="971">
-      <c r="A971" t="n">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971">
         <v>970</v>
       </c>
     </row>
-    <row r="972">
-      <c r="A972" t="n">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972">
         <v>971</v>
       </c>
     </row>
-    <row r="973">
-      <c r="A973" t="n">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973">
         <v>972</v>
       </c>
     </row>
-    <row r="974">
-      <c r="A974" t="n">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974">
         <v>973</v>
       </c>
     </row>
-    <row r="975">
-      <c r="A975" t="n">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975">
         <v>974</v>
       </c>
     </row>
-    <row r="976">
-      <c r="A976" t="n">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976">
         <v>975</v>
       </c>
     </row>
-    <row r="977">
-      <c r="A977" t="n">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977">
         <v>976</v>
       </c>
     </row>
-    <row r="978">
-      <c r="A978" t="n">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978">
         <v>977</v>
       </c>
     </row>
-    <row r="979">
-      <c r="A979" t="n">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979">
         <v>978</v>
       </c>
     </row>
-    <row r="980">
-      <c r="A980" t="n">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980">
         <v>979</v>
       </c>
     </row>
-    <row r="981">
-      <c r="A981" t="n">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981">
         <v>980</v>
       </c>
     </row>
-    <row r="982">
-      <c r="A982" t="n">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982">
         <v>981</v>
       </c>
     </row>
-    <row r="983">
-      <c r="A983" t="n">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983">
         <v>982</v>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="n">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984">
         <v>983</v>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="n">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985">
         <v>984</v>
       </c>
     </row>
-    <row r="986">
-      <c r="A986" t="n">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986">
         <v>985</v>
       </c>
     </row>
-    <row r="987">
-      <c r="A987" t="n">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987">
         <v>986</v>
       </c>
     </row>
-    <row r="988">
-      <c r="A988" t="n">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988">
         <v>987</v>
       </c>
     </row>
-    <row r="989">
-      <c r="A989" t="n">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989">
         <v>988</v>
       </c>
     </row>
-    <row r="990">
-      <c r="A990" t="n">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990">
         <v>989</v>
       </c>
     </row>
-    <row r="991">
-      <c r="A991" t="n">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991">
         <v>990</v>
       </c>
     </row>
-    <row r="992">
-      <c r="A992" t="n">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992">
         <v>991</v>
       </c>
     </row>
-    <row r="993">
-      <c r="A993" t="n">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994">
-      <c r="A994" t="n">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995">
-      <c r="A995" t="n">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996">
-      <c r="A996" t="n">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997">
-      <c r="A997" t="n">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998">
-      <c r="A998" t="n">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999">
-      <c r="A999" t="n">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000">
-      <c r="A1000" t="n">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000">
         <v>999</v>
       </c>
     </row>
-    <row r="1001">
-      <c r="A1001" t="n">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001">
         <v>1000</v>
       </c>
     </row>
@@ -5570,7 +5482,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23775" yWindow="3060" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registros" sheetId="1" state="visible" r:id="rId1"/>
@@ -527,17 +527,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>asdas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>dasdasd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,20 +575,200 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
       </c>
     </row>
     <row r="7">

--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J1001" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:J1001"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K1001" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:K1001"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="Nombre"/>
     <tableColumn id="3" name="Apellido"/>
@@ -146,6 +146,7 @@
     <tableColumn id="8" name="Cargo que ocupa"/>
     <tableColumn id="9" name="¿Ha consumido drogas?"/>
     <tableColumn id="10" name="¿Tiene algún desorden mental?"/>
+    <tableColumn id="11" name="¿Padece de alguna enfermedad crónica o terminal?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,10 +453,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -467,6 +468,7 @@
     <col width="37" customWidth="1" min="8" max="8"/>
     <col width="37.28515625" customWidth="1" min="9" max="9"/>
     <col width="35.7109375" customWidth="1" min="10" max="10"/>
+    <col width="31.140625" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,6 +522,11 @@
           <t>¿Tiene algún desorden mental?</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>¿Padece de alguna enfermedad crónica o terminal?</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -570,6 +577,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -620,6 +632,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -670,6 +687,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -720,6 +742,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -770,30 +797,285 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sdasd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-03-09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sdasd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021-03-09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asjdhjasdasdasd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>asdfadsdasd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fffdgdgfdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ASDASD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>asdfasd</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
       </c>
     </row>
     <row r="12">

--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -1,41 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\Documents\Mi Ordenador\Programación\Proyectos Python\Project2 - 16pf\16-pftest\respuestas\registro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C6C47-5298-477C-8AED-5724372EE406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Empresa donde trabaja</t>
+  </si>
+  <si>
+    <t>Cargo que ocupa</t>
+  </si>
+  <si>
+    <t>¿Ha consumido drogas?</t>
+  </si>
+  <si>
+    <t>¿Tiene algún desorden mental?</t>
+  </si>
+  <si>
+    <t>¿Padece de alguna enfermedad crónica o terminal?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,99 +97,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K1001" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:K1001"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K1001" totalsRowShown="0">
+  <autoFilter ref="A1:K1001" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="Nombre"/>
-    <tableColumn id="3" name="Apellido"/>
-    <tableColumn id="4" name="Cedula"/>
-    <tableColumn id="5" name="Fecha de nacimiento"/>
-    <tableColumn id="6" name="Estado civil"/>
-    <tableColumn id="7" name="Empresa donde trabaja"/>
-    <tableColumn id="8" name="Cargo que ocupa"/>
-    <tableColumn id="9" name="¿Ha consumido drogas?"/>
-    <tableColumn id="10" name="¿Tiene algún desorden mental?"/>
-    <tableColumn id="11" name="¿Padece de alguna enfermedad crónica o terminal?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Apellido"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cedula"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha de nacimiento"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estado civil"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Empresa donde trabaja"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cargo que ocupa"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="¿Ha consumido drogas?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="¿Tiene algún desorden mental?"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿Padece de alguna enfermedad crónica o terminal?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,5591 +432,5066 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19.5703125" customWidth="1" min="5" max="5"/>
-    <col width="28.140625" customWidth="1" min="6" max="6"/>
-    <col width="32.140625" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="37.28515625" customWidth="1" min="9" max="9"/>
-    <col width="35.7109375" customWidth="1" min="10" max="10"/>
-    <col width="31.140625" customWidth="1" min="11" max="11"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Apellido</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cedula</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Fecha de nacimiento</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Estado civil</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Empresa donde trabaja</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cargo que ocupa</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>¿Ha consumido drogas?</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>¿Tiene algún desorden mental?</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>¿Padece de alguna enfermedad crónica o terminal?</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>asdasdas</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sdasd</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021-03-09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sdasd</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021-03-09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>asjdhjasdasdasd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>asdasdasd</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2021-03-01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>asdfadsdasd</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>fffdgdgfdf</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ASDASD</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021-03-01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>asdfasd</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="n">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="n">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="n">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="n">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="n">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="n">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="n">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="n">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="n">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="n">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="n">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="n">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="n">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="n">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="n">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="n">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="n">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="n">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="n">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="n">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="n">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="n">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="n">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="n">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="n">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="n">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="n">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="n">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="n">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="n">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="n">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="n">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="n">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="n">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="n">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="n">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="n">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="n">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="n">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="n">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="n">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="n">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="n">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="n">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="n">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="n">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="n">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="n">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="n">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="n">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="n">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="n">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="n">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="n">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="n">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="n">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="n">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="n">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="n">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="n">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="n">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="n">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="n">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="n">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="n">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="n">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="n">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="n">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="n">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="n">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="n">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="n">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="n">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="n">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="n">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="n">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="n">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="n">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="n">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="n">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="n">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="n">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="n">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="n">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="n">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="n">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="n">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="n">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="n">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="n">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="n">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="n">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="n">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="n">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="n">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="n">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="n">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="n">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="n">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>400</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="n">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>401</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="n">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>402</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="n">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>403</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="n">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>404</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="n">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
         <v>405</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="n">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
         <v>406</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="n">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>407</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="n">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
         <v>408</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="n">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
         <v>409</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="n">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
         <v>410</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="n">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
         <v>411</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="n">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
         <v>412</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="n">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
         <v>413</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="n">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
         <v>414</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="n">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
         <v>415</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="n">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
         <v>416</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="n">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
         <v>417</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="n">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
         <v>418</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="n">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
         <v>419</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="n">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
         <v>420</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="n">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
         <v>421</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="n">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>422</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="n">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
         <v>423</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="n">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
         <v>424</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="n">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
         <v>425</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="n">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
         <v>426</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="n">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
         <v>427</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="n">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
         <v>428</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="n">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>429</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="n">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
         <v>430</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="n">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
         <v>431</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="n">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
         <v>432</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="n">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
         <v>433</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="n">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
         <v>434</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="n">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
         <v>435</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="n">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
         <v>436</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="n">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
         <v>437</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="n">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
         <v>438</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="n">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
         <v>439</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="n">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
         <v>440</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="n">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
         <v>441</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="n">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
         <v>442</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="n">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
         <v>443</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="n">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
         <v>444</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="n">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
         <v>445</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="n">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
         <v>446</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="n">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
         <v>447</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="n">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
         <v>448</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="n">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
         <v>449</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="n">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
         <v>450</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="n">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
         <v>451</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="n">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
         <v>452</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="n">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
         <v>453</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" t="n">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
         <v>454</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="n">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
         <v>455</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="n">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
         <v>456</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="n">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
         <v>457</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" t="n">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
         <v>458</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" t="n">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
         <v>459</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" t="n">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
         <v>460</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" t="n">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
         <v>461</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" t="n">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
         <v>462</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" t="n">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
         <v>463</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" t="n">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
         <v>464</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" t="n">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
         <v>465</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="n">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
         <v>466</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" t="n">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
         <v>467</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" t="n">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
         <v>468</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" t="n">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
         <v>469</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" t="n">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
         <v>470</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" t="n">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
         <v>471</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" t="n">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
         <v>472</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" t="n">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
         <v>473</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" t="n">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
         <v>474</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" t="n">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
         <v>475</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" t="n">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
         <v>476</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" t="n">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
         <v>477</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" t="n">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
         <v>478</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="n">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
         <v>479</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" t="n">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="n">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="n">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="n">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="n">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" t="n">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="n">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="n">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" t="n">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" t="n">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="n">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" t="n">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="n">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="n">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="n">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" t="n">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" t="n">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" t="n">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" t="n">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" t="n">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" t="n">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" t="n">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" t="n">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" t="n">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" t="n">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" t="n">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" t="n">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" t="n">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" t="n">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" t="n">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" t="n">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" t="n">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" t="n">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" t="n">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" t="n">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" t="n">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" t="n">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" t="n">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" t="n">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" t="n">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" t="n">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" t="n">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" t="n">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" t="n">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" t="n">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" t="n">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" t="n">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" t="n">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" t="n">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" t="n">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" t="n">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" t="n">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" t="n">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" t="n">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" t="n">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" t="n">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" t="n">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" t="n">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" t="n">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
         <v>538</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" t="n">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
         <v>539</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" t="n">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
         <v>540</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" t="n">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
         <v>541</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" t="n">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
         <v>542</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" t="n">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
         <v>543</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" t="n">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" t="n">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" t="n">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" t="n">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" t="n">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550">
-      <c r="A550" t="n">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" t="n">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" t="n">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
         <v>551</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" t="n">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
         <v>552</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" t="n">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
         <v>553</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" t="n">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
         <v>554</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" t="n">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" t="n">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
         <v>556</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" t="n">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
         <v>557</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" t="n">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" t="n">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
         <v>559</v>
       </c>
     </row>
-    <row r="561">
-      <c r="A561" t="n">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
         <v>560</v>
       </c>
     </row>
-    <row r="562">
-      <c r="A562" t="n">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
         <v>561</v>
       </c>
     </row>
-    <row r="563">
-      <c r="A563" t="n">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
         <v>562</v>
       </c>
     </row>
-    <row r="564">
-      <c r="A564" t="n">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
         <v>563</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" t="n">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
         <v>564</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" t="n">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
         <v>565</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" t="n">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
         <v>566</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" t="n">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
         <v>567</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" t="n">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
         <v>568</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" t="n">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
         <v>569</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" t="n">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
         <v>570</v>
       </c>
     </row>
-    <row r="572">
-      <c r="A572" t="n">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
         <v>571</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" t="n">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
         <v>572</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" t="n">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
         <v>573</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" t="n">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
         <v>574</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" t="n">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
         <v>575</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" t="n">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" t="n">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" t="n">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" t="n">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" t="n">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" t="n">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
         <v>581</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" t="n">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
         <v>582</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" t="n">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
         <v>583</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" t="n">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
         <v>584</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" t="n">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
         <v>585</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" t="n">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
         <v>586</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" t="n">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
         <v>587</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" t="n">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
         <v>588</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" t="n">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
         <v>589</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" t="n">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
         <v>590</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" t="n">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
         <v>591</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" t="n">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" t="n">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" t="n">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" t="n">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" t="n">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" t="n">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" t="n">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" t="n">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" t="n">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
         <v>600</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" t="n">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
         <v>601</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" t="n">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
         <v>602</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" t="n">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
         <v>603</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" t="n">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
         <v>604</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" t="n">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607">
-      <c r="A607" t="n">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" t="n">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
         <v>607</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" t="n">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
         <v>608</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" t="n">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
         <v>609</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" t="n">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
         <v>610</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" t="n">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
         <v>611</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" t="n">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
         <v>612</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" t="n">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
         <v>613</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" t="n">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
         <v>614</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" t="n">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
         <v>615</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" t="n">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
         <v>616</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" t="n">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
         <v>617</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" t="n">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
         <v>618</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" t="n">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
         <v>619</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" t="n">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
         <v>620</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" t="n">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
         <v>621</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" t="n">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
         <v>622</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" t="n">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
         <v>623</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" t="n">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
         <v>624</v>
       </c>
     </row>
-    <row r="626">
-      <c r="A626" t="n">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
         <v>625</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" t="n">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
         <v>626</v>
       </c>
     </row>
-    <row r="628">
-      <c r="A628" t="n">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
         <v>627</v>
       </c>
     </row>
-    <row r="629">
-      <c r="A629" t="n">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
         <v>628</v>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" t="n">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
         <v>629</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" t="n">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
         <v>630</v>
       </c>
     </row>
-    <row r="632">
-      <c r="A632" t="n">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
         <v>631</v>
       </c>
     </row>
-    <row r="633">
-      <c r="A633" t="n">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
         <v>632</v>
       </c>
     </row>
-    <row r="634">
-      <c r="A634" t="n">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
         <v>633</v>
       </c>
     </row>
-    <row r="635">
-      <c r="A635" t="n">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
         <v>634</v>
       </c>
     </row>
-    <row r="636">
-      <c r="A636" t="n">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
         <v>635</v>
       </c>
     </row>
-    <row r="637">
-      <c r="A637" t="n">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
         <v>636</v>
       </c>
     </row>
-    <row r="638">
-      <c r="A638" t="n">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
         <v>637</v>
       </c>
     </row>
-    <row r="639">
-      <c r="A639" t="n">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
         <v>638</v>
       </c>
     </row>
-    <row r="640">
-      <c r="A640" t="n">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
         <v>639</v>
       </c>
     </row>
-    <row r="641">
-      <c r="A641" t="n">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
         <v>640</v>
       </c>
     </row>
-    <row r="642">
-      <c r="A642" t="n">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
         <v>641</v>
       </c>
     </row>
-    <row r="643">
-      <c r="A643" t="n">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
         <v>642</v>
       </c>
     </row>
-    <row r="644">
-      <c r="A644" t="n">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
         <v>643</v>
       </c>
     </row>
-    <row r="645">
-      <c r="A645" t="n">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
         <v>644</v>
       </c>
     </row>
-    <row r="646">
-      <c r="A646" t="n">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
         <v>645</v>
       </c>
     </row>
-    <row r="647">
-      <c r="A647" t="n">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
         <v>646</v>
       </c>
     </row>
-    <row r="648">
-      <c r="A648" t="n">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
         <v>647</v>
       </c>
     </row>
-    <row r="649">
-      <c r="A649" t="n">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
         <v>648</v>
       </c>
     </row>
-    <row r="650">
-      <c r="A650" t="n">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
         <v>649</v>
       </c>
     </row>
-    <row r="651">
-      <c r="A651" t="n">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
         <v>650</v>
       </c>
     </row>
-    <row r="652">
-      <c r="A652" t="n">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
         <v>651</v>
       </c>
     </row>
-    <row r="653">
-      <c r="A653" t="n">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
         <v>652</v>
       </c>
     </row>
-    <row r="654">
-      <c r="A654" t="n">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
         <v>653</v>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="n">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
         <v>654</v>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="n">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
         <v>655</v>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="n">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658">
-      <c r="A658" t="n">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659">
-      <c r="A659" t="n">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660">
-      <c r="A660" t="n">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661">
-      <c r="A661" t="n">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662">
-      <c r="A662" t="n">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663">
-      <c r="A663" t="n">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664">
-      <c r="A664" t="n">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665">
-      <c r="A665" t="n">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
         <v>664</v>
       </c>
     </row>
-    <row r="666">
-      <c r="A666" t="n">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
         <v>665</v>
       </c>
     </row>
-    <row r="667">
-      <c r="A667" t="n">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
         <v>666</v>
       </c>
     </row>
-    <row r="668">
-      <c r="A668" t="n">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
         <v>667</v>
       </c>
     </row>
-    <row r="669">
-      <c r="A669" t="n">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
         <v>668</v>
       </c>
     </row>
-    <row r="670">
-      <c r="A670" t="n">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
         <v>669</v>
       </c>
     </row>
-    <row r="671">
-      <c r="A671" t="n">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
         <v>670</v>
       </c>
     </row>
-    <row r="672">
-      <c r="A672" t="n">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
         <v>671</v>
       </c>
     </row>
-    <row r="673">
-      <c r="A673" t="n">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
         <v>672</v>
       </c>
     </row>
-    <row r="674">
-      <c r="A674" t="n">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
         <v>673</v>
       </c>
     </row>
-    <row r="675">
-      <c r="A675" t="n">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
         <v>674</v>
       </c>
     </row>
-    <row r="676">
-      <c r="A676" t="n">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
         <v>675</v>
       </c>
     </row>
-    <row r="677">
-      <c r="A677" t="n">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
         <v>676</v>
       </c>
     </row>
-    <row r="678">
-      <c r="A678" t="n">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
         <v>677</v>
       </c>
     </row>
-    <row r="679">
-      <c r="A679" t="n">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
         <v>678</v>
       </c>
     </row>
-    <row r="680">
-      <c r="A680" t="n">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
         <v>679</v>
       </c>
     </row>
-    <row r="681">
-      <c r="A681" t="n">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
         <v>680</v>
       </c>
     </row>
-    <row r="682">
-      <c r="A682" t="n">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
         <v>681</v>
       </c>
     </row>
-    <row r="683">
-      <c r="A683" t="n">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
         <v>682</v>
       </c>
     </row>
-    <row r="684">
-      <c r="A684" t="n">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685">
-      <c r="A685" t="n">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686">
-      <c r="A686" t="n">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687">
-      <c r="A687" t="n">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688">
-      <c r="A688" t="n">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
         <v>687</v>
       </c>
     </row>
-    <row r="689">
-      <c r="A689" t="n">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690">
-      <c r="A690" t="n">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691">
-      <c r="A691" t="n">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692">
-      <c r="A692" t="n">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693">
-      <c r="A693" t="n">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694">
-      <c r="A694" t="n">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695">
-      <c r="A695" t="n">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696">
-      <c r="A696" t="n">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697">
-      <c r="A697" t="n">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698">
-      <c r="A698" t="n">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699">
-      <c r="A699" t="n">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700">
-      <c r="A700" t="n">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701">
-      <c r="A701" t="n">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
         <v>700</v>
       </c>
     </row>
-    <row r="702">
-      <c r="A702" t="n">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
         <v>701</v>
       </c>
     </row>
-    <row r="703">
-      <c r="A703" t="n">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
         <v>702</v>
       </c>
     </row>
-    <row r="704">
-      <c r="A704" t="n">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
         <v>703</v>
       </c>
     </row>
-    <row r="705">
-      <c r="A705" t="n">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
         <v>704</v>
       </c>
     </row>
-    <row r="706">
-      <c r="A706" t="n">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
         <v>705</v>
       </c>
     </row>
-    <row r="707">
-      <c r="A707" t="n">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
         <v>706</v>
       </c>
     </row>
-    <row r="708">
-      <c r="A708" t="n">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
         <v>707</v>
       </c>
     </row>
-    <row r="709">
-      <c r="A709" t="n">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
         <v>708</v>
       </c>
     </row>
-    <row r="710">
-      <c r="A710" t="n">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
         <v>709</v>
       </c>
     </row>
-    <row r="711">
-      <c r="A711" t="n">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
         <v>710</v>
       </c>
     </row>
-    <row r="712">
-      <c r="A712" t="n">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
         <v>711</v>
       </c>
     </row>
-    <row r="713">
-      <c r="A713" t="n">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
         <v>712</v>
       </c>
     </row>
-    <row r="714">
-      <c r="A714" t="n">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
         <v>713</v>
       </c>
     </row>
-    <row r="715">
-      <c r="A715" t="n">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
         <v>714</v>
       </c>
     </row>
-    <row r="716">
-      <c r="A716" t="n">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
         <v>715</v>
       </c>
     </row>
-    <row r="717">
-      <c r="A717" t="n">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
         <v>716</v>
       </c>
     </row>
-    <row r="718">
-      <c r="A718" t="n">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
         <v>717</v>
       </c>
     </row>
-    <row r="719">
-      <c r="A719" t="n">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
         <v>718</v>
       </c>
     </row>
-    <row r="720">
-      <c r="A720" t="n">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
         <v>719</v>
       </c>
     </row>
-    <row r="721">
-      <c r="A721" t="n">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
         <v>720</v>
       </c>
     </row>
-    <row r="722">
-      <c r="A722" t="n">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
         <v>721</v>
       </c>
     </row>
-    <row r="723">
-      <c r="A723" t="n">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
         <v>722</v>
       </c>
     </row>
-    <row r="724">
-      <c r="A724" t="n">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
         <v>723</v>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="n">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
         <v>724</v>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="n">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
         <v>725</v>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="n">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
         <v>726</v>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="n">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
         <v>727</v>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="n">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
         <v>728</v>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="n">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
         <v>729</v>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="n">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
         <v>730</v>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="n">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
         <v>731</v>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="n">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734">
-      <c r="A734" t="n">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735">
-      <c r="A735" t="n">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736">
-      <c r="A736" t="n">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
         <v>735</v>
       </c>
     </row>
-    <row r="737">
-      <c r="A737" t="n">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
         <v>736</v>
       </c>
     </row>
-    <row r="738">
-      <c r="A738" t="n">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
         <v>737</v>
       </c>
     </row>
-    <row r="739">
-      <c r="A739" t="n">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
         <v>738</v>
       </c>
     </row>
-    <row r="740">
-      <c r="A740" t="n">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
         <v>739</v>
       </c>
     </row>
-    <row r="741">
-      <c r="A741" t="n">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
         <v>740</v>
       </c>
     </row>
-    <row r="742">
-      <c r="A742" t="n">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
         <v>741</v>
       </c>
     </row>
-    <row r="743">
-      <c r="A743" t="n">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
         <v>742</v>
       </c>
     </row>
-    <row r="744">
-      <c r="A744" t="n">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
         <v>743</v>
       </c>
     </row>
-    <row r="745">
-      <c r="A745" t="n">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
         <v>744</v>
       </c>
     </row>
-    <row r="746">
-      <c r="A746" t="n">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
         <v>745</v>
       </c>
     </row>
-    <row r="747">
-      <c r="A747" t="n">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
         <v>746</v>
       </c>
     </row>
-    <row r="748">
-      <c r="A748" t="n">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
         <v>747</v>
       </c>
     </row>
-    <row r="749">
-      <c r="A749" t="n">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
         <v>748</v>
       </c>
     </row>
-    <row r="750">
-      <c r="A750" t="n">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
         <v>749</v>
       </c>
     </row>
-    <row r="751">
-      <c r="A751" t="n">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
         <v>750</v>
       </c>
     </row>
-    <row r="752">
-      <c r="A752" t="n">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
         <v>751</v>
       </c>
     </row>
-    <row r="753">
-      <c r="A753" t="n">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
         <v>752</v>
       </c>
     </row>
-    <row r="754">
-      <c r="A754" t="n">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
         <v>753</v>
       </c>
     </row>
-    <row r="755">
-      <c r="A755" t="n">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
         <v>754</v>
       </c>
     </row>
-    <row r="756">
-      <c r="A756" t="n">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
         <v>755</v>
       </c>
     </row>
-    <row r="757">
-      <c r="A757" t="n">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
         <v>756</v>
       </c>
     </row>
-    <row r="758">
-      <c r="A758" t="n">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
         <v>757</v>
       </c>
     </row>
-    <row r="759">
-      <c r="A759" t="n">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
         <v>758</v>
       </c>
     </row>
-    <row r="760">
-      <c r="A760" t="n">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
         <v>759</v>
       </c>
     </row>
-    <row r="761">
-      <c r="A761" t="n">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
         <v>760</v>
       </c>
     </row>
-    <row r="762">
-      <c r="A762" t="n">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
         <v>761</v>
       </c>
     </row>
-    <row r="763">
-      <c r="A763" t="n">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
         <v>762</v>
       </c>
     </row>
-    <row r="764">
-      <c r="A764" t="n">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
         <v>763</v>
       </c>
     </row>
-    <row r="765">
-      <c r="A765" t="n">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
         <v>764</v>
       </c>
     </row>
-    <row r="766">
-      <c r="A766" t="n">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
         <v>765</v>
       </c>
     </row>
-    <row r="767">
-      <c r="A767" t="n">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
         <v>766</v>
       </c>
     </row>
-    <row r="768">
-      <c r="A768" t="n">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
         <v>767</v>
       </c>
     </row>
-    <row r="769">
-      <c r="A769" t="n">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
         <v>768</v>
       </c>
     </row>
-    <row r="770">
-      <c r="A770" t="n">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
         <v>769</v>
       </c>
     </row>
-    <row r="771">
-      <c r="A771" t="n">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
         <v>770</v>
       </c>
     </row>
-    <row r="772">
-      <c r="A772" t="n">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
         <v>771</v>
       </c>
     </row>
-    <row r="773">
-      <c r="A773" t="n">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
         <v>772</v>
       </c>
     </row>
-    <row r="774">
-      <c r="A774" t="n">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
         <v>773</v>
       </c>
     </row>
-    <row r="775">
-      <c r="A775" t="n">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
         <v>774</v>
       </c>
     </row>
-    <row r="776">
-      <c r="A776" t="n">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
         <v>775</v>
       </c>
     </row>
-    <row r="777">
-      <c r="A777" t="n">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
         <v>776</v>
       </c>
     </row>
-    <row r="778">
-      <c r="A778" t="n">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
         <v>777</v>
       </c>
     </row>
-    <row r="779">
-      <c r="A779" t="n">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
         <v>778</v>
       </c>
     </row>
-    <row r="780">
-      <c r="A780" t="n">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
         <v>779</v>
       </c>
     </row>
-    <row r="781">
-      <c r="A781" t="n">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
         <v>780</v>
       </c>
     </row>
-    <row r="782">
-      <c r="A782" t="n">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
         <v>781</v>
       </c>
     </row>
-    <row r="783">
-      <c r="A783" t="n">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
         <v>782</v>
       </c>
     </row>
-    <row r="784">
-      <c r="A784" t="n">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
         <v>783</v>
       </c>
     </row>
-    <row r="785">
-      <c r="A785" t="n">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
         <v>784</v>
       </c>
     </row>
-    <row r="786">
-      <c r="A786" t="n">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
         <v>785</v>
       </c>
     </row>
-    <row r="787">
-      <c r="A787" t="n">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
         <v>786</v>
       </c>
     </row>
-    <row r="788">
-      <c r="A788" t="n">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
         <v>787</v>
       </c>
     </row>
-    <row r="789">
-      <c r="A789" t="n">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790">
-      <c r="A790" t="n">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
         <v>789</v>
       </c>
     </row>
-    <row r="791">
-      <c r="A791" t="n">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
         <v>790</v>
       </c>
     </row>
-    <row r="792">
-      <c r="A792" t="n">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
         <v>791</v>
       </c>
     </row>
-    <row r="793">
-      <c r="A793" t="n">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
         <v>792</v>
       </c>
     </row>
-    <row r="794">
-      <c r="A794" t="n">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
         <v>793</v>
       </c>
     </row>
-    <row r="795">
-      <c r="A795" t="n">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
         <v>794</v>
       </c>
     </row>
-    <row r="796">
-      <c r="A796" t="n">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
         <v>795</v>
       </c>
     </row>
-    <row r="797">
-      <c r="A797" t="n">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
         <v>796</v>
       </c>
     </row>
-    <row r="798">
-      <c r="A798" t="n">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799">
-      <c r="A799" t="n">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
         <v>798</v>
       </c>
     </row>
-    <row r="800">
-      <c r="A800" t="n">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
         <v>799</v>
       </c>
     </row>
-    <row r="801">
-      <c r="A801" t="n">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802">
-      <c r="A802" t="n">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
         <v>801</v>
       </c>
     </row>
-    <row r="803">
-      <c r="A803" t="n">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
         <v>802</v>
       </c>
     </row>
-    <row r="804">
-      <c r="A804" t="n">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
         <v>803</v>
       </c>
     </row>
-    <row r="805">
-      <c r="A805" t="n">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
         <v>804</v>
       </c>
     </row>
-    <row r="806">
-      <c r="A806" t="n">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807">
-      <c r="A807" t="n">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808">
-      <c r="A808" t="n">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809">
-      <c r="A809" t="n">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810">
-      <c r="A810" t="n">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811">
-      <c r="A811" t="n">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812">
-      <c r="A812" t="n">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813">
-      <c r="A813" t="n">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814">
-      <c r="A814" t="n">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815">
-      <c r="A815" t="n">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816">
-      <c r="A816" t="n">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
         <v>815</v>
       </c>
     </row>
-    <row r="817">
-      <c r="A817" t="n">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
         <v>816</v>
       </c>
     </row>
-    <row r="818">
-      <c r="A818" t="n">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
         <v>817</v>
       </c>
     </row>
-    <row r="819">
-      <c r="A819" t="n">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
         <v>818</v>
       </c>
     </row>
-    <row r="820">
-      <c r="A820" t="n">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
         <v>819</v>
       </c>
     </row>
-    <row r="821">
-      <c r="A821" t="n">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
         <v>820</v>
       </c>
     </row>
-    <row r="822">
-      <c r="A822" t="n">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
         <v>821</v>
       </c>
     </row>
-    <row r="823">
-      <c r="A823" t="n">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
         <v>822</v>
       </c>
     </row>
-    <row r="824">
-      <c r="A824" t="n">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
         <v>823</v>
       </c>
     </row>
-    <row r="825">
-      <c r="A825" t="n">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
         <v>824</v>
       </c>
     </row>
-    <row r="826">
-      <c r="A826" t="n">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
         <v>825</v>
       </c>
     </row>
-    <row r="827">
-      <c r="A827" t="n">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
         <v>826</v>
       </c>
     </row>
-    <row r="828">
-      <c r="A828" t="n">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
         <v>827</v>
       </c>
     </row>
-    <row r="829">
-      <c r="A829" t="n">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
         <v>828</v>
       </c>
     </row>
-    <row r="830">
-      <c r="A830" t="n">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
         <v>829</v>
       </c>
     </row>
-    <row r="831">
-      <c r="A831" t="n">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
         <v>830</v>
       </c>
     </row>
-    <row r="832">
-      <c r="A832" t="n">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
         <v>831</v>
       </c>
     </row>
-    <row r="833">
-      <c r="A833" t="n">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
         <v>832</v>
       </c>
     </row>
-    <row r="834">
-      <c r="A834" t="n">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
         <v>833</v>
       </c>
     </row>
-    <row r="835">
-      <c r="A835" t="n">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
         <v>834</v>
       </c>
     </row>
-    <row r="836">
-      <c r="A836" t="n">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
         <v>835</v>
       </c>
     </row>
-    <row r="837">
-      <c r="A837" t="n">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
         <v>836</v>
       </c>
     </row>
-    <row r="838">
-      <c r="A838" t="n">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838">
         <v>837</v>
       </c>
     </row>
-    <row r="839">
-      <c r="A839" t="n">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839">
         <v>838</v>
       </c>
     </row>
-    <row r="840">
-      <c r="A840" t="n">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841">
-      <c r="A841" t="n">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841">
         <v>840</v>
       </c>
     </row>
-    <row r="842">
-      <c r="A842" t="n">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843">
-      <c r="A843" t="n">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843">
         <v>842</v>
       </c>
     </row>
-    <row r="844">
-      <c r="A844" t="n">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844">
         <v>843</v>
       </c>
     </row>
-    <row r="845">
-      <c r="A845" t="n">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845">
         <v>844</v>
       </c>
     </row>
-    <row r="846">
-      <c r="A846" t="n">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846">
         <v>845</v>
       </c>
     </row>
-    <row r="847">
-      <c r="A847" t="n">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847">
         <v>846</v>
       </c>
     </row>
-    <row r="848">
-      <c r="A848" t="n">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848">
         <v>847</v>
       </c>
     </row>
-    <row r="849">
-      <c r="A849" t="n">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850">
-      <c r="A850" t="n">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851">
-      <c r="A851" t="n">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851">
         <v>850</v>
       </c>
     </row>
-    <row r="852">
-      <c r="A852" t="n">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852">
         <v>851</v>
       </c>
     </row>
-    <row r="853">
-      <c r="A853" t="n">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854">
-      <c r="A854" t="n">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855">
-      <c r="A855" t="n">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855">
         <v>854</v>
       </c>
     </row>
-    <row r="856">
-      <c r="A856" t="n">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857">
-      <c r="A857" t="n">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858">
-      <c r="A858" t="n">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859">
-      <c r="A859" t="n">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860">
-      <c r="A860" t="n">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860">
         <v>859</v>
       </c>
     </row>
-    <row r="861">
-      <c r="A861" t="n">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862">
-      <c r="A862" t="n">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863">
-      <c r="A863" t="n">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864">
-      <c r="A864" t="n">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865">
-      <c r="A865" t="n">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866">
-      <c r="A866" t="n">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867">
-      <c r="A867" t="n">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868">
-      <c r="A868" t="n">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868">
         <v>867</v>
       </c>
     </row>
-    <row r="869">
-      <c r="A869" t="n">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870">
-      <c r="A870" t="n">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870">
         <v>869</v>
       </c>
     </row>
-    <row r="871">
-      <c r="A871" t="n">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872">
-      <c r="A872" t="n">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872">
         <v>871</v>
       </c>
     </row>
-    <row r="873">
-      <c r="A873" t="n">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873">
         <v>872</v>
       </c>
     </row>
-    <row r="874">
-      <c r="A874" t="n">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875">
-      <c r="A875" t="n">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876">
-      <c r="A876" t="n">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877">
-      <c r="A877" t="n">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877">
         <v>876</v>
       </c>
     </row>
-    <row r="878">
-      <c r="A878" t="n">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879">
-      <c r="A879" t="n">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879">
         <v>878</v>
       </c>
     </row>
-    <row r="880">
-      <c r="A880" t="n">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880">
         <v>879</v>
       </c>
     </row>
-    <row r="881">
-      <c r="A881" t="n">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881">
         <v>880</v>
       </c>
     </row>
-    <row r="882">
-      <c r="A882" t="n">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882">
         <v>881</v>
       </c>
     </row>
-    <row r="883">
-      <c r="A883" t="n">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884">
-      <c r="A884" t="n">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884">
         <v>883</v>
       </c>
     </row>
-    <row r="885">
-      <c r="A885" t="n">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885">
         <v>884</v>
       </c>
     </row>
-    <row r="886">
-      <c r="A886" t="n">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887">
-      <c r="A887" t="n">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887">
         <v>886</v>
       </c>
     </row>
-    <row r="888">
-      <c r="A888" t="n">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888">
         <v>887</v>
       </c>
     </row>
-    <row r="889">
-      <c r="A889" t="n">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890">
-      <c r="A890" t="n">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891">
-      <c r="A891" t="n">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891">
         <v>890</v>
       </c>
     </row>
-    <row r="892">
-      <c r="A892" t="n">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893">
-      <c r="A893" t="n">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893">
         <v>892</v>
       </c>
     </row>
-    <row r="894">
-      <c r="A894" t="n">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894">
         <v>893</v>
       </c>
     </row>
-    <row r="895">
-      <c r="A895" t="n">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895">
         <v>894</v>
       </c>
     </row>
-    <row r="896">
-      <c r="A896" t="n">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896">
         <v>895</v>
       </c>
     </row>
-    <row r="897">
-      <c r="A897" t="n">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898">
-      <c r="A898" t="n">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899">
-      <c r="A899" t="n">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900">
-      <c r="A900" t="n">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901">
-      <c r="A901" t="n">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902">
-      <c r="A902" t="n">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902">
         <v>901</v>
       </c>
     </row>
-    <row r="903">
-      <c r="A903" t="n">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903">
         <v>902</v>
       </c>
     </row>
-    <row r="904">
-      <c r="A904" t="n">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904">
         <v>903</v>
       </c>
     </row>
-    <row r="905">
-      <c r="A905" t="n">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905">
         <v>904</v>
       </c>
     </row>
-    <row r="906">
-      <c r="A906" t="n">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906">
         <v>905</v>
       </c>
     </row>
-    <row r="907">
-      <c r="A907" t="n">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907">
         <v>906</v>
       </c>
     </row>
-    <row r="908">
-      <c r="A908" t="n">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908">
         <v>907</v>
       </c>
     </row>
-    <row r="909">
-      <c r="A909" t="n">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910">
-      <c r="A910" t="n">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910">
         <v>909</v>
       </c>
     </row>
-    <row r="911">
-      <c r="A911" t="n">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911">
         <v>910</v>
       </c>
     </row>
-    <row r="912">
-      <c r="A912" t="n">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912">
         <v>911</v>
       </c>
     </row>
-    <row r="913">
-      <c r="A913" t="n">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913">
         <v>912</v>
       </c>
     </row>
-    <row r="914">
-      <c r="A914" t="n">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914">
         <v>913</v>
       </c>
     </row>
-    <row r="915">
-      <c r="A915" t="n">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916">
-      <c r="A916" t="n">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917">
-      <c r="A917" t="n">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
         <v>916</v>
       </c>
     </row>
-    <row r="918">
-      <c r="A918" t="n">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919">
-      <c r="A919" t="n">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920">
-      <c r="A920" t="n">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921">
-      <c r="A921" t="n">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922">
-      <c r="A922" t="n">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923">
-      <c r="A923" t="n">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923">
         <v>922</v>
       </c>
     </row>
-    <row r="924">
-      <c r="A924" t="n">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924">
         <v>923</v>
       </c>
     </row>
-    <row r="925">
-      <c r="A925" t="n">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925">
         <v>924</v>
       </c>
     </row>
-    <row r="926">
-      <c r="A926" t="n">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926">
         <v>925</v>
       </c>
     </row>
-    <row r="927">
-      <c r="A927" t="n">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927">
         <v>926</v>
       </c>
     </row>
-    <row r="928">
-      <c r="A928" t="n">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928">
         <v>927</v>
       </c>
     </row>
-    <row r="929">
-      <c r="A929" t="n">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929">
         <v>928</v>
       </c>
     </row>
-    <row r="930">
-      <c r="A930" t="n">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931">
-      <c r="A931" t="n">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932">
-      <c r="A932" t="n">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933">
-      <c r="A933" t="n">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934">
-      <c r="A934" t="n">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935">
-      <c r="A935" t="n">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936">
-      <c r="A936" t="n">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937">
-      <c r="A937" t="n">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938">
-      <c r="A938" t="n">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939">
-      <c r="A939" t="n">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940">
-      <c r="A940" t="n">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941">
-      <c r="A941" t="n">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942">
-      <c r="A942" t="n">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943">
-      <c r="A943" t="n">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944">
-      <c r="A944" t="n">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944">
         <v>943</v>
       </c>
     </row>
-    <row r="945">
-      <c r="A945" t="n">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945">
         <v>944</v>
       </c>
     </row>
-    <row r="946">
-      <c r="A946" t="n">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946">
         <v>945</v>
       </c>
     </row>
-    <row r="947">
-      <c r="A947" t="n">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947">
         <v>946</v>
       </c>
     </row>
-    <row r="948">
-      <c r="A948" t="n">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948">
         <v>947</v>
       </c>
     </row>
-    <row r="949">
-      <c r="A949" t="n">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949">
         <v>948</v>
       </c>
     </row>
-    <row r="950">
-      <c r="A950" t="n">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950">
         <v>949</v>
       </c>
     </row>
-    <row r="951">
-      <c r="A951" t="n">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951">
         <v>950</v>
       </c>
     </row>
-    <row r="952">
-      <c r="A952" t="n">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
         <v>951</v>
       </c>
     </row>
-    <row r="953">
-      <c r="A953" t="n">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
         <v>952</v>
       </c>
     </row>
-    <row r="954">
-      <c r="A954" t="n">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954">
         <v>953</v>
       </c>
     </row>
-    <row r="955">
-      <c r="A955" t="n">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955">
         <v>954</v>
       </c>
     </row>
-    <row r="956">
-      <c r="A956" t="n">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956">
         <v>955</v>
       </c>
     </row>
-    <row r="957">
-      <c r="A957" t="n">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957">
         <v>956</v>
       </c>
     </row>
-    <row r="958">
-      <c r="A958" t="n">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958">
         <v>957</v>
       </c>
     </row>
-    <row r="959">
-      <c r="A959" t="n">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959">
         <v>958</v>
       </c>
     </row>
-    <row r="960">
-      <c r="A960" t="n">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960">
         <v>959</v>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="n">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961">
         <v>960</v>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="n">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962">
         <v>961</v>
       </c>
     </row>
-    <row r="963">
-      <c r="A963" t="n">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963">
         <v>962</v>
       </c>
     </row>
-    <row r="964">
-      <c r="A964" t="n">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964">
         <v>963</v>
       </c>
     </row>
-    <row r="965">
-      <c r="A965" t="n">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965">
         <v>964</v>
       </c>
     </row>
-    <row r="966">
-      <c r="A966" t="n">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966">
         <v>965</v>
       </c>
     </row>
-    <row r="967">
-      <c r="A967" t="n">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967">
         <v>966</v>
       </c>
     </row>
-    <row r="968">
-      <c r="A968" t="n">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968">
         <v>967</v>
       </c>
     </row>
-    <row r="969">
-      <c r="A969" t="n">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969">
         <v>968</v>
       </c>
     </row>
-    <row r="970">
-      <c r="A970" t="n">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970">
         <v>969</v>
       </c>
     </row>
-    <row r="971">
-      <c r="A971" t="n">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971">
         <v>970</v>
       </c>
     </row>
-    <row r="972">
-      <c r="A972" t="n">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972">
         <v>971</v>
       </c>
     </row>
-    <row r="973">
-      <c r="A973" t="n">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973">
         <v>972</v>
       </c>
     </row>
-    <row r="974">
-      <c r="A974" t="n">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974">
         <v>973</v>
       </c>
     </row>
-    <row r="975">
-      <c r="A975" t="n">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975">
         <v>974</v>
       </c>
     </row>
-    <row r="976">
-      <c r="A976" t="n">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976">
         <v>975</v>
       </c>
     </row>
-    <row r="977">
-      <c r="A977" t="n">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977">
         <v>976</v>
       </c>
     </row>
-    <row r="978">
-      <c r="A978" t="n">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978">
         <v>977</v>
       </c>
     </row>
-    <row r="979">
-      <c r="A979" t="n">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979">
         <v>978</v>
       </c>
     </row>
-    <row r="980">
-      <c r="A980" t="n">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980">
         <v>979</v>
       </c>
     </row>
-    <row r="981">
-      <c r="A981" t="n">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981">
         <v>980</v>
       </c>
     </row>
-    <row r="982">
-      <c r="A982" t="n">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982">
         <v>981</v>
       </c>
     </row>
-    <row r="983">
-      <c r="A983" t="n">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983">
         <v>982</v>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="n">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984">
         <v>983</v>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="n">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985">
         <v>984</v>
       </c>
     </row>
-    <row r="986">
-      <c r="A986" t="n">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986">
         <v>985</v>
       </c>
     </row>
-    <row r="987">
-      <c r="A987" t="n">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987">
         <v>986</v>
       </c>
     </row>
-    <row r="988">
-      <c r="A988" t="n">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988">
         <v>987</v>
       </c>
     </row>
-    <row r="989">
-      <c r="A989" t="n">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989">
         <v>988</v>
       </c>
     </row>
-    <row r="990">
-      <c r="A990" t="n">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990">
         <v>989</v>
       </c>
     </row>
-    <row r="991">
-      <c r="A991" t="n">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991">
         <v>990</v>
       </c>
     </row>
-    <row r="992">
-      <c r="A992" t="n">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992">
         <v>991</v>
       </c>
     </row>
-    <row r="993">
-      <c r="A993" t="n">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993">
         <v>992</v>
       </c>
     </row>
-    <row r="994">
-      <c r="A994" t="n">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994">
         <v>993</v>
       </c>
     </row>
-    <row r="995">
-      <c r="A995" t="n">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995">
         <v>994</v>
       </c>
     </row>
-    <row r="996">
-      <c r="A996" t="n">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996">
         <v>995</v>
       </c>
     </row>
-    <row r="997">
-      <c r="A997" t="n">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997">
         <v>996</v>
       </c>
     </row>
-    <row r="998">
-      <c r="A998" t="n">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998">
         <v>997</v>
       </c>
     </row>
-    <row r="999">
-      <c r="A999" t="n">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999">
         <v>998</v>
       </c>
     </row>
-    <row r="1000">
-      <c r="A1000" t="n">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000">
         <v>999</v>
       </c>
     </row>
-    <row r="1001">
-      <c r="A1001" t="n">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -1,84 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\Documents\Mi Ordenador\Programación\Proyectos Python\Project2 - 16pf\16-pftest\respuestas\registro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C6C47-5298-477C-8AED-5724372EE406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8940" yWindow="2985" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Cedula</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Estado civil</t>
-  </si>
-  <si>
-    <t>Empresa donde trabaja</t>
-  </si>
-  <si>
-    <t>Cargo que ocupa</t>
-  </si>
-  <si>
-    <t>¿Ha consumido drogas?</t>
-  </si>
-  <si>
-    <t>¿Tiene algún desorden mental?</t>
-  </si>
-  <si>
-    <t>¿Padece de alguna enfermedad crónica o terminal?</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,40 +54,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K1001" totalsRowShown="0">
-  <autoFilter ref="A1:K1001" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K1001" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:K1001"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Apellido"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cedula"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha de nacimiento"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estado civil"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Empresa donde trabaja"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cargo que ocupa"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="¿Ha consumido drogas?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="¿Tiene algún desorden mental?"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿Padece de alguna enfermedad crónica o terminal?"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="Nombre"/>
+    <tableColumn id="3" name="Apellido"/>
+    <tableColumn id="4" name="Cedula"/>
+    <tableColumn id="5" name="Fecha de nacimiento"/>
+    <tableColumn id="6" name="Estado civil"/>
+    <tableColumn id="7" name="Empresa donde trabaja"/>
+    <tableColumn id="8" name="Cargo que ocupa"/>
+    <tableColumn id="9" name="¿Ha consumido drogas?"/>
+    <tableColumn id="10" name="¿Tiene algún desorden mental?"/>
+    <tableColumn id="11" name="¿Padece de alguna enfermedad crónica o terminal?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,5066 +448,5192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.5703125" customWidth="1" min="5" max="5"/>
+    <col width="28.140625" customWidth="1" min="6" max="6"/>
+    <col width="32.140625" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="8" max="8"/>
+    <col width="37.28515625" customWidth="1" min="9" max="9"/>
+    <col width="35.7109375" customWidth="1" min="10" max="10"/>
+    <col width="58.7109375" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Apellido</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cedula</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fecha de nacimiento</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Estado civil</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Empresa donde trabaja</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Cargo que ocupa</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>¿Ha consumido drogas?</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>¿Tiene algún desorden mental?</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>¿Padece de alguna enfermedad crónica o terminal?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128">
+      <c r="A128" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129">
+      <c r="A129" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130">
+      <c r="A130" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131">
+      <c r="A131" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132">
+      <c r="A132" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133">
+      <c r="A133" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134">
+      <c r="A134" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135">
+      <c r="A135" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136">
+      <c r="A136" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137">
+      <c r="A137" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138">
+      <c r="A138" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139">
+      <c r="A139" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140">
+      <c r="A140" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141">
+      <c r="A141" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142">
+      <c r="A142" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143">
+      <c r="A143" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144">
+      <c r="A144" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145">
+      <c r="A145" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146">
+      <c r="A146" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147">
+      <c r="A147" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148">
+      <c r="A148" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149">
+      <c r="A149" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150">
+      <c r="A150" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151">
+      <c r="A151" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152">
+      <c r="A152" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153">
+      <c r="A153" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154">
+      <c r="A154" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155">
+      <c r="A155" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156">
+      <c r="A156" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157">
+      <c r="A157" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158">
+      <c r="A158" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159">
+      <c r="A159" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160">
+      <c r="A160" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161">
+      <c r="A161" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162">
+      <c r="A162" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163">
+      <c r="A163" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164">
+      <c r="A164" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165">
+      <c r="A165" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166">
+      <c r="A166" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167">
+      <c r="A167" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168">
+      <c r="A168" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169">
+      <c r="A169" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170">
+      <c r="A170" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171">
+      <c r="A171" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172">
+      <c r="A172" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173">
+      <c r="A173" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174">
+      <c r="A174" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175">
+      <c r="A175" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176">
+      <c r="A176" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177">
+      <c r="A177" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178">
+      <c r="A178" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179">
+      <c r="A179" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180">
+      <c r="A180" t="n">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181">
+      <c r="A181" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182">
+      <c r="A182" t="n">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183">
+      <c r="A183" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184">
+      <c r="A184" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185">
+      <c r="A185" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186">
+      <c r="A186" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187">
+      <c r="A187" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188">
+      <c r="A188" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189">
+      <c r="A189" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190">
+      <c r="A190" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191">
+      <c r="A191" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192">
+      <c r="A192" t="n">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193">
+      <c r="A193" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194">
+      <c r="A194" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195">
+      <c r="A195" t="n">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196">
+      <c r="A196" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197">
+      <c r="A197" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198">
+      <c r="A198" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199">
+      <c r="A199" t="n">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200">
+      <c r="A200" t="n">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201">
+      <c r="A201" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202">
+      <c r="A202" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203">
+      <c r="A203" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204">
+      <c r="A204" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205">
+      <c r="A205" t="n">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206">
+      <c r="A206" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207">
+      <c r="A207" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208">
+      <c r="A208" t="n">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209">
+      <c r="A209" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210">
+      <c r="A210" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211">
+      <c r="A211" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212">
+      <c r="A212" t="n">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213">
+      <c r="A213" t="n">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214">
+      <c r="A214" t="n">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215">
+      <c r="A215" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216">
+      <c r="A216" t="n">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217">
+      <c r="A217" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218">
+      <c r="A218" t="n">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219">
+      <c r="A219" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220">
+      <c r="A220" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221">
+      <c r="A221" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222">
+      <c r="A222" t="n">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223">
+      <c r="A223" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224">
+      <c r="A224" t="n">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225">
+      <c r="A225" t="n">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226">
+      <c r="A226" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227">
+      <c r="A227" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228">
+      <c r="A228" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229">
+      <c r="A229" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230">
+      <c r="A230" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231">
+      <c r="A231" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232">
+      <c r="A232" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233">
+      <c r="A233" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234">
+      <c r="A234" t="n">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235">
+      <c r="A235" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236">
+      <c r="A236" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237">
+      <c r="A237" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238">
+      <c r="A238" t="n">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239">
+      <c r="A239" t="n">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240">
+      <c r="A240" t="n">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241">
+      <c r="A241" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242">
+      <c r="A242" t="n">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243">
+      <c r="A243" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244">
+      <c r="A244" t="n">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245">
+      <c r="A245" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246">
+      <c r="A246" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247">
+      <c r="A247" t="n">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248">
+      <c r="A248" t="n">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249">
+      <c r="A249" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250">
+      <c r="A250" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251">
+      <c r="A251" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252">
+      <c r="A252" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253">
+      <c r="A253" t="n">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254">
+      <c r="A254" t="n">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255">
+      <c r="A255" t="n">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256">
+      <c r="A256" t="n">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257">
+      <c r="A257" t="n">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258">
+      <c r="A258" t="n">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259">
+      <c r="A259" t="n">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260">
+      <c r="A260" t="n">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261">
+      <c r="A261" t="n">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262">
+      <c r="A262" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263">
+      <c r="A263" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264">
+      <c r="A264" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265">
+      <c r="A265" t="n">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266">
+      <c r="A266" t="n">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267">
+      <c r="A267" t="n">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268">
+      <c r="A268" t="n">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269">
+      <c r="A269" t="n">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270">
+      <c r="A270" t="n">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271">
+      <c r="A271" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272">
+      <c r="A272" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273">
+      <c r="A273" t="n">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274">
+      <c r="A274" t="n">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275">
+      <c r="A275" t="n">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276">
+      <c r="A276" t="n">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277">
+      <c r="A277" t="n">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278">
+      <c r="A278" t="n">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279">
+      <c r="A279" t="n">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280">
+      <c r="A280" t="n">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="281">
+      <c r="A281" t="n">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="282">
+      <c r="A282" t="n">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283">
+      <c r="A283" t="n">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284">
+      <c r="A284" t="n">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285">
+      <c r="A285" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286">
+      <c r="A286" t="n">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="287">
+      <c r="A287" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288">
+      <c r="A288" t="n">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="289">
+      <c r="A289" t="n">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290">
+      <c r="A290" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="291">
+      <c r="A291" t="n">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292">
+      <c r="A292" t="n">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="293">
+      <c r="A293" t="n">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294">
+      <c r="A294" t="n">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295">
+      <c r="A295" t="n">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296">
+      <c r="A296" t="n">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="297">
+      <c r="A297" t="n">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298">
+      <c r="A298" t="n">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299">
+      <c r="A299" t="n">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300">
+      <c r="A300" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="301">
+      <c r="A301" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302">
+      <c r="A302" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303">
+      <c r="A303" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="304">
+      <c r="A304" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="305">
+      <c r="A305" t="n">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="306">
+      <c r="A306" t="n">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="307">
+      <c r="A307" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="308">
+      <c r="A308" t="n">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309">
+      <c r="A309" t="n">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="310">
+      <c r="A310" t="n">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311">
+      <c r="A311" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312">
+      <c r="A312" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313">
+      <c r="A313" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314">
+      <c r="A314" t="n">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315">
+      <c r="A315" t="n">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="316">
+      <c r="A316" t="n">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317">
+      <c r="A317" t="n">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318">
+      <c r="A318" t="n">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="319">
+      <c r="A319" t="n">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320">
+      <c r="A320" t="n">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321">
+      <c r="A321" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322">
+      <c r="A322" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row r="323">
+      <c r="A323" t="n">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324">
+      <c r="A324" t="n">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="325">
+      <c r="A325" t="n">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326">
+      <c r="A326" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327">
+      <c r="A327" t="n">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328">
+      <c r="A328" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329">
+      <c r="A329" t="n">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="330">
+      <c r="A330" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331">
+      <c r="A331" t="n">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="332">
+      <c r="A332" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333">
+      <c r="A333" t="n">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334">
+      <c r="A334" t="n">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335">
+      <c r="A335" t="n">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336">
+      <c r="A336" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="337">
+      <c r="A337" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338">
+      <c r="A338" t="n">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339">
+      <c r="A339" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340">
+      <c r="A340" t="n">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="341">
+      <c r="A341" t="n">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342">
+      <c r="A342" t="n">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343">
+      <c r="A343" t="n">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344">
+      <c r="A344" t="n">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345">
+      <c r="A345" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346">
+      <c r="A346" t="n">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347">
+      <c r="A347" t="n">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348">
+      <c r="A348" t="n">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349">
+      <c r="A349" t="n">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350">
+      <c r="A350" t="n">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351">
+      <c r="A351" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352">
+      <c r="A352" t="n">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353">
+      <c r="A353" t="n">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354">
+      <c r="A354" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355">
+      <c r="A355" t="n">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356">
+      <c r="A356" t="n">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357">
+      <c r="A357" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358">
+      <c r="A358" t="n">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359">
+      <c r="A359" t="n">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360">
+      <c r="A360" t="n">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361">
+      <c r="A361" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362">
+      <c r="A362" t="n">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363">
+      <c r="A363" t="n">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364">
+      <c r="A364" t="n">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365">
+      <c r="A365" t="n">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366">
+      <c r="A366" t="n">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367">
+      <c r="A367" t="n">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368">
+      <c r="A368" t="n">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369">
+      <c r="A369" t="n">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370">
+      <c r="A370" t="n">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371">
+      <c r="A371" t="n">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372">
+      <c r="A372" t="n">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373">
+      <c r="A373" t="n">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374">
+      <c r="A374" t="n">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375">
+      <c r="A375" t="n">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376">
+      <c r="A376" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377">
+      <c r="A377" t="n">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378">
+      <c r="A378" t="n">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379">
+      <c r="A379" t="n">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380">
+      <c r="A380" t="n">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381">
+      <c r="A381" t="n">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382">
+      <c r="A382" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383">
+      <c r="A383" t="n">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384">
+      <c r="A384" t="n">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385">
+      <c r="A385" t="n">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row r="386">
+      <c r="A386" t="n">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387">
+    <row r="387">
+      <c r="A387" t="n">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="388">
+      <c r="A388" t="n">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="389">
+      <c r="A389" t="n">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="390">
+      <c r="A390" t="n">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="391">
+      <c r="A391" t="n">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="392">
+      <c r="A392" t="n">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="393">
+      <c r="A393" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="394">
+      <c r="A394" t="n">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="395">
+      <c r="A395" t="n">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="396">
+      <c r="A396" t="n">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="397">
+      <c r="A397" t="n">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="398">
+      <c r="A398" t="n">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="399">
+      <c r="A399" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="400">
+      <c r="A400" t="n">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="401">
+      <c r="A401" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="402">
+      <c r="A402" t="n">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="403">
+      <c r="A403" t="n">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="404">
+      <c r="A404" t="n">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="405">
+      <c r="A405" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="406">
+      <c r="A406" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="407">
+      <c r="A407" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="408">
+      <c r="A408" t="n">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="409">
+      <c r="A409" t="n">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="410">
+      <c r="A410" t="n">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="411">
+      <c r="A411" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="412">
+      <c r="A412" t="n">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="413">
+      <c r="A413" t="n">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="414">
+      <c r="A414" t="n">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="415">
+      <c r="A415" t="n">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="416">
+      <c r="A416" t="n">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="417">
+      <c r="A417" t="n">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418">
+      <c r="A418" t="n">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419">
+      <c r="A419" t="n">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="420">
+      <c r="A420" t="n">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="421">
+      <c r="A421" t="n">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="422">
+      <c r="A422" t="n">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="423">
+      <c r="A423" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="424">
+      <c r="A424" t="n">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425">
+      <c r="A425" t="n">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="426">
+      <c r="A426" t="n">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="427">
+      <c r="A427" t="n">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428">
+      <c r="A428" t="n">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="429">
+      <c r="A429" t="n">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="430">
+      <c r="A430" t="n">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="431">
+      <c r="A431" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="432">
+      <c r="A432" t="n">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="433">
+      <c r="A433" t="n">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="434">
+      <c r="A434" t="n">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="435">
+      <c r="A435" t="n">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="436">
+      <c r="A436" t="n">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="437">
+      <c r="A437" t="n">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="438">
+      <c r="A438" t="n">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="439">
+      <c r="A439" t="n">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="440">
+      <c r="A440" t="n">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="441">
+      <c r="A441" t="n">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442">
+      <c r="A442" t="n">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="443">
+      <c r="A443" t="n">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444">
+    <row r="444">
+      <c r="A444" t="n">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445">
+    <row r="445">
+      <c r="A445" t="n">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446">
+    <row r="446">
+      <c r="A446" t="n">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="447">
+      <c r="A447" t="n">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448">
+    <row r="448">
+      <c r="A448" t="n">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449">
+    <row r="449">
+      <c r="A449" t="n">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450">
+    <row r="450">
+      <c r="A450" t="n">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451">
+    <row r="451">
+      <c r="A451" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="452">
+      <c r="A452" t="n">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453">
+    <row r="453">
+      <c r="A453" t="n">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454">
+    <row r="454">
+      <c r="A454" t="n">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455">
+    <row r="455">
+      <c r="A455" t="n">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456">
+    <row r="456">
+      <c r="A456" t="n">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="457">
+      <c r="A457" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458">
+    <row r="458">
+      <c r="A458" t="n">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459">
+    <row r="459">
+      <c r="A459" t="n">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460">
+    <row r="460">
+      <c r="A460" t="n">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461">
+    <row r="461">
+      <c r="A461" t="n">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="462">
+      <c r="A462" t="n">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463">
+    <row r="463">
+      <c r="A463" t="n">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464">
+    <row r="464">
+      <c r="A464" t="n">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465">
+    <row r="465">
+      <c r="A465" t="n">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466">
+    <row r="466">
+      <c r="A466" t="n">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467">
+    <row r="467">
+      <c r="A467" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468">
+    <row r="468">
+      <c r="A468" t="n">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469">
+    <row r="469">
+      <c r="A469" t="n">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470">
+    <row r="470">
+      <c r="A470" t="n">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471">
+    <row r="471">
+      <c r="A471" t="n">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472">
+    <row r="472">
+      <c r="A472" t="n">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473">
+    <row r="473">
+      <c r="A473" t="n">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474">
+    <row r="474">
+      <c r="A474" t="n">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475">
+    <row r="475">
+      <c r="A475" t="n">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476">
+    <row r="476">
+      <c r="A476" t="n">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
+    <row r="477">
+      <c r="A477" t="n">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478">
+    <row r="478">
+      <c r="A478" t="n">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479">
+    <row r="479">
+      <c r="A479" t="n">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
+    <row r="480">
+      <c r="A480" t="n">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481">
+    <row r="481">
+      <c r="A481" t="n">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482">
+    <row r="482">
+      <c r="A482" t="n">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483">
+    <row r="483">
+      <c r="A483" t="n">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484">
+    <row r="484">
+      <c r="A484" t="n">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485">
+    <row r="485">
+      <c r="A485" t="n">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486">
+    <row r="486">
+      <c r="A486" t="n">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487">
+    <row r="487">
+      <c r="A487" t="n">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488">
+    <row r="488">
+      <c r="A488" t="n">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489">
+    <row r="489">
+      <c r="A489" t="n">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490">
+    <row r="490">
+      <c r="A490" t="n">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491">
+    <row r="491">
+      <c r="A491" t="n">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492">
+    <row r="492">
+      <c r="A492" t="n">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493">
+    <row r="493">
+      <c r="A493" t="n">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494">
+    <row r="494">
+      <c r="A494" t="n">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495">
+    <row r="495">
+      <c r="A495" t="n">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496">
+    <row r="496">
+      <c r="A496" t="n">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497">
+    <row r="497">
+      <c r="A497" t="n">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498">
+    <row r="498">
+      <c r="A498" t="n">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499">
+    <row r="499">
+      <c r="A499" t="n">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500">
+    <row r="500">
+      <c r="A500" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501">
+    <row r="501">
+      <c r="A501" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
+    <row r="502">
+      <c r="A502" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503">
+    <row r="503">
+      <c r="A503" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504">
+    <row r="504">
+      <c r="A504" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505">
+    <row r="505">
+      <c r="A505" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506">
+    <row r="506">
+      <c r="A506" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507">
+    <row r="507">
+      <c r="A507" t="n">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508">
+    <row r="508">
+      <c r="A508" t="n">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509">
+    <row r="509">
+      <c r="A509" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510">
+    <row r="510">
+      <c r="A510" t="n">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511">
+    <row r="511">
+      <c r="A511" t="n">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512">
+    <row r="512">
+      <c r="A512" t="n">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513">
+    <row r="513">
+      <c r="A513" t="n">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514">
+    <row r="514">
+      <c r="A514" t="n">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515">
+    <row r="515">
+      <c r="A515" t="n">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516">
+    <row r="516">
+      <c r="A516" t="n">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517">
+    <row r="517">
+      <c r="A517" t="n">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518">
+    <row r="518">
+      <c r="A518" t="n">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519">
+    <row r="519">
+      <c r="A519" t="n">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520">
+    <row r="520">
+      <c r="A520" t="n">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521">
+    <row r="521">
+      <c r="A521" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522">
+    <row r="522">
+      <c r="A522" t="n">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523">
+    <row r="523">
+      <c r="A523" t="n">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524">
+    <row r="524">
+      <c r="A524" t="n">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525">
+    <row r="525">
+      <c r="A525" t="n">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526">
+    <row r="526">
+      <c r="A526" t="n">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527">
+    <row r="527">
+      <c r="A527" t="n">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528">
+    <row r="528">
+      <c r="A528" t="n">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529">
+    <row r="529">
+      <c r="A529" t="n">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530">
+    <row r="530">
+      <c r="A530" t="n">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531">
+    <row r="531">
+      <c r="A531" t="n">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="532">
+      <c r="A532" t="n">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533">
+    <row r="533">
+      <c r="A533" t="n">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534">
+    <row r="534">
+      <c r="A534" t="n">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535">
+    <row r="535">
+      <c r="A535" t="n">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536">
+    <row r="536">
+      <c r="A536" t="n">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537">
+    <row r="537">
+      <c r="A537" t="n">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538">
+    <row r="538">
+      <c r="A538" t="n">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539">
+    <row r="539">
+      <c r="A539" t="n">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540">
+    <row r="540">
+      <c r="A540" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541">
+    <row r="541">
+      <c r="A541" t="n">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542">
+    <row r="542">
+      <c r="A542" t="n">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543">
+    <row r="543">
+      <c r="A543" t="n">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544">
+    <row r="544">
+      <c r="A544" t="n">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545">
+    <row r="545">
+      <c r="A545" t="n">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546">
+    <row r="546">
+      <c r="A546" t="n">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547">
+    <row r="547">
+      <c r="A547" t="n">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548">
+    <row r="548">
+      <c r="A548" t="n">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549">
+    <row r="549">
+      <c r="A549" t="n">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550">
+    <row r="550">
+      <c r="A550" t="n">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551">
+    <row r="551">
+      <c r="A551" t="n">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552">
+    <row r="552">
+      <c r="A552" t="n">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553">
+    <row r="553">
+      <c r="A553" t="n">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="554">
+      <c r="A554" t="n">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555">
+    <row r="555">
+      <c r="A555" t="n">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556">
+    <row r="556">
+      <c r="A556" t="n">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557">
+    <row r="557">
+      <c r="A557" t="n">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558">
+    <row r="558">
+      <c r="A558" t="n">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559">
+    <row r="559">
+      <c r="A559" t="n">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560">
+    <row r="560">
+      <c r="A560" t="n">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561">
+    <row r="561">
+      <c r="A561" t="n">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562">
+    <row r="562">
+      <c r="A562" t="n">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563">
+    <row r="563">
+      <c r="A563" t="n">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564">
+    <row r="564">
+      <c r="A564" t="n">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565">
+    <row r="565">
+      <c r="A565" t="n">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566">
+    <row r="566">
+      <c r="A566" t="n">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567">
+    <row r="567">
+      <c r="A567" t="n">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568">
+    <row r="568">
+      <c r="A568" t="n">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569">
+    <row r="569">
+      <c r="A569" t="n">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570">
+    <row r="570">
+      <c r="A570" t="n">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571">
+    <row r="571">
+      <c r="A571" t="n">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572">
+    <row r="572">
+      <c r="A572" t="n">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573">
+    <row r="573">
+      <c r="A573" t="n">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574">
+    <row r="574">
+      <c r="A574" t="n">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575">
+    <row r="575">
+      <c r="A575" t="n">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576">
+    <row r="576">
+      <c r="A576" t="n">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577">
+    <row r="577">
+      <c r="A577" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578">
+    <row r="578">
+      <c r="A578" t="n">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579">
+    <row r="579">
+      <c r="A579" t="n">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580">
+    <row r="580">
+      <c r="A580" t="n">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581">
+    <row r="581">
+      <c r="A581" t="n">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582">
+    <row r="582">
+      <c r="A582" t="n">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583">
+    <row r="583">
+      <c r="A583" t="n">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584">
+    <row r="584">
+      <c r="A584" t="n">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585">
+    <row r="585">
+      <c r="A585" t="n">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586">
+    <row r="586">
+      <c r="A586" t="n">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587">
+    <row r="587">
+      <c r="A587" t="n">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588">
+    <row r="588">
+      <c r="A588" t="n">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589">
+    <row r="589">
+      <c r="A589" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590">
+    <row r="590">
+      <c r="A590" t="n">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591">
+    <row r="591">
+      <c r="A591" t="n">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592">
+    <row r="592">
+      <c r="A592" t="n">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593">
+    <row r="593">
+      <c r="A593" t="n">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594">
+    <row r="594">
+      <c r="A594" t="n">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595">
+    <row r="595">
+      <c r="A595" t="n">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596">
+    <row r="596">
+      <c r="A596" t="n">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597">
+    <row r="597">
+      <c r="A597" t="n">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598">
+    <row r="598">
+      <c r="A598" t="n">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599">
+    <row r="599">
+      <c r="A599" t="n">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600">
+    <row r="600">
+      <c r="A600" t="n">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601">
+    <row r="601">
+      <c r="A601" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602">
+    <row r="602">
+      <c r="A602" t="n">
         <v>601</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603">
+    <row r="603">
+      <c r="A603" t="n">
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604">
+    <row r="604">
+      <c r="A604" t="n">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605">
+    <row r="605">
+      <c r="A605" t="n">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606">
+    <row r="606">
+      <c r="A606" t="n">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607">
+    <row r="607">
+      <c r="A607" t="n">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608">
+    <row r="608">
+      <c r="A608" t="n">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609">
+    <row r="609">
+      <c r="A609" t="n">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610">
+    <row r="610">
+      <c r="A610" t="n">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611">
+    <row r="611">
+      <c r="A611" t="n">
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612">
+    <row r="612">
+      <c r="A612" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613">
+    <row r="613">
+      <c r="A613" t="n">
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614">
+    <row r="614">
+      <c r="A614" t="n">
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615">
+    <row r="615">
+      <c r="A615" t="n">
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616">
+    <row r="616">
+      <c r="A616" t="n">
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617">
+    <row r="617">
+      <c r="A617" t="n">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618">
+    <row r="618">
+      <c r="A618" t="n">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619">
+    <row r="619">
+      <c r="A619" t="n">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620">
+    <row r="620">
+      <c r="A620" t="n">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621">
+    <row r="621">
+      <c r="A621" t="n">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622">
+    <row r="622">
+      <c r="A622" t="n">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623">
+    <row r="623">
+      <c r="A623" t="n">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624">
+    <row r="624">
+      <c r="A624" t="n">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625">
+    <row r="625">
+      <c r="A625" t="n">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626">
+    <row r="626">
+      <c r="A626" t="n">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627">
+    <row r="627">
+      <c r="A627" t="n">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628">
+    <row r="628">
+      <c r="A628" t="n">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629">
+    <row r="629">
+      <c r="A629" t="n">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630">
+    <row r="630">
+      <c r="A630" t="n">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631">
+    <row r="631">
+      <c r="A631" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632">
+    <row r="632">
+      <c r="A632" t="n">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633">
+    <row r="633">
+      <c r="A633" t="n">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634">
+    <row r="634">
+      <c r="A634" t="n">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635">
+    <row r="635">
+      <c r="A635" t="n">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636">
+    <row r="636">
+      <c r="A636" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637">
+    <row r="637">
+      <c r="A637" t="n">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638">
+    <row r="638">
+      <c r="A638" t="n">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639">
+    <row r="639">
+      <c r="A639" t="n">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640">
+    <row r="640">
+      <c r="A640" t="n">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641">
+    <row r="641">
+      <c r="A641" t="n">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642">
+    <row r="642">
+      <c r="A642" t="n">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643">
+    <row r="643">
+      <c r="A643" t="n">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644">
+    <row r="644">
+      <c r="A644" t="n">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645">
+    <row r="645">
+      <c r="A645" t="n">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646">
+    <row r="646">
+      <c r="A646" t="n">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647">
+    <row r="647">
+      <c r="A647" t="n">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648">
+    <row r="648">
+      <c r="A648" t="n">
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649">
+    <row r="649">
+      <c r="A649" t="n">
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650">
+    <row r="650">
+      <c r="A650" t="n">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651">
+    <row r="651">
+      <c r="A651" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652">
+    <row r="652">
+      <c r="A652" t="n">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653">
+    <row r="653">
+      <c r="A653" t="n">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654">
+    <row r="654">
+      <c r="A654" t="n">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655">
+    <row r="655">
+      <c r="A655" t="n">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656">
+    <row r="656">
+      <c r="A656" t="n">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657">
+    <row r="657">
+      <c r="A657" t="n">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658">
+    <row r="658">
+      <c r="A658" t="n">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659">
+    <row r="659">
+      <c r="A659" t="n">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660">
+    <row r="660">
+      <c r="A660" t="n">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661">
+    <row r="661">
+      <c r="A661" t="n">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662">
+    <row r="662">
+      <c r="A662" t="n">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663">
+    <row r="663">
+      <c r="A663" t="n">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664">
+    <row r="664">
+      <c r="A664" t="n">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665">
+    <row r="665">
+      <c r="A665" t="n">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666">
+    <row r="666">
+      <c r="A666" t="n">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667">
+    <row r="667">
+      <c r="A667" t="n">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668">
+    <row r="668">
+      <c r="A668" t="n">
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669">
+    <row r="669">
+      <c r="A669" t="n">
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670">
+    <row r="670">
+      <c r="A670" t="n">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671">
+    <row r="671">
+      <c r="A671" t="n">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672">
+    <row r="672">
+      <c r="A672" t="n">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673">
+    <row r="673">
+      <c r="A673" t="n">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674">
+    <row r="674">
+      <c r="A674" t="n">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675">
+    <row r="675">
+      <c r="A675" t="n">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676">
+    <row r="676">
+      <c r="A676" t="n">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677">
+    <row r="677">
+      <c r="A677" t="n">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678">
+    <row r="678">
+      <c r="A678" t="n">
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679">
+    <row r="679">
+      <c r="A679" t="n">
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680">
+    <row r="680">
+      <c r="A680" t="n">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681">
+    <row r="681">
+      <c r="A681" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682">
+    <row r="682">
+      <c r="A682" t="n">
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683">
+    <row r="683">
+      <c r="A683" t="n">
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684">
+    <row r="684">
+      <c r="A684" t="n">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685">
+    <row r="685">
+      <c r="A685" t="n">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686">
+    <row r="686">
+      <c r="A686" t="n">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687">
+    <row r="687">
+      <c r="A687" t="n">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688">
+    <row r="688">
+      <c r="A688" t="n">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689">
+    <row r="689">
+      <c r="A689" t="n">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690">
+    <row r="690">
+      <c r="A690" t="n">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691">
+    <row r="691">
+      <c r="A691" t="n">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692">
+    <row r="692">
+      <c r="A692" t="n">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693">
+    <row r="693">
+      <c r="A693" t="n">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694">
+    <row r="694">
+      <c r="A694" t="n">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695">
+    <row r="695">
+      <c r="A695" t="n">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696">
+    <row r="696">
+      <c r="A696" t="n">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697">
+    <row r="697">
+      <c r="A697" t="n">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698">
+    <row r="698">
+      <c r="A698" t="n">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699">
+    <row r="699">
+      <c r="A699" t="n">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700">
+    <row r="700">
+      <c r="A700" t="n">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701">
+    <row r="701">
+      <c r="A701" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702">
+    <row r="702">
+      <c r="A702" t="n">
         <v>701</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703">
+    <row r="703">
+      <c r="A703" t="n">
         <v>702</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704">
+    <row r="704">
+      <c r="A704" t="n">
         <v>703</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705">
+    <row r="705">
+      <c r="A705" t="n">
         <v>704</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706">
+    <row r="706">
+      <c r="A706" t="n">
         <v>705</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707">
+    <row r="707">
+      <c r="A707" t="n">
         <v>706</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708">
+    <row r="708">
+      <c r="A708" t="n">
         <v>707</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709">
+    <row r="709">
+      <c r="A709" t="n">
         <v>708</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710">
+    <row r="710">
+      <c r="A710" t="n">
         <v>709</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711">
+    <row r="711">
+      <c r="A711" t="n">
         <v>710</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712">
+    <row r="712">
+      <c r="A712" t="n">
         <v>711</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713">
+    <row r="713">
+      <c r="A713" t="n">
         <v>712</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714">
+    <row r="714">
+      <c r="A714" t="n">
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715">
+    <row r="715">
+      <c r="A715" t="n">
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716">
+    <row r="716">
+      <c r="A716" t="n">
         <v>715</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717">
+    <row r="717">
+      <c r="A717" t="n">
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718">
+    <row r="718">
+      <c r="A718" t="n">
         <v>717</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719">
+    <row r="719">
+      <c r="A719" t="n">
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720">
+    <row r="720">
+      <c r="A720" t="n">
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721">
+    <row r="721">
+      <c r="A721" t="n">
         <v>720</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722">
+    <row r="722">
+      <c r="A722" t="n">
         <v>721</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723">
+    <row r="723">
+      <c r="A723" t="n">
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724">
+    <row r="724">
+      <c r="A724" t="n">
         <v>723</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725">
+    <row r="725">
+      <c r="A725" t="n">
         <v>724</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726">
+    <row r="726">
+      <c r="A726" t="n">
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727">
+    <row r="727">
+      <c r="A727" t="n">
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728">
+    <row r="728">
+      <c r="A728" t="n">
         <v>727</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729">
+    <row r="729">
+      <c r="A729" t="n">
         <v>728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730">
+    <row r="730">
+      <c r="A730" t="n">
         <v>729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731">
+    <row r="731">
+      <c r="A731" t="n">
         <v>730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732">
+    <row r="732">
+      <c r="A732" t="n">
         <v>731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733">
+    <row r="733">
+      <c r="A733" t="n">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734">
+    <row r="734">
+      <c r="A734" t="n">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735">
+    <row r="735">
+      <c r="A735" t="n">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736">
+    <row r="736">
+      <c r="A736" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737">
+    <row r="737">
+      <c r="A737" t="n">
         <v>736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738">
+    <row r="738">
+      <c r="A738" t="n">
         <v>737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739">
+    <row r="739">
+      <c r="A739" t="n">
         <v>738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740">
+    <row r="740">
+      <c r="A740" t="n">
         <v>739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741">
+    <row r="741">
+      <c r="A741" t="n">
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742">
+    <row r="742">
+      <c r="A742" t="n">
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743">
+    <row r="743">
+      <c r="A743" t="n">
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744">
+    <row r="744">
+      <c r="A744" t="n">
         <v>743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745">
+    <row r="745">
+      <c r="A745" t="n">
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746">
+    <row r="746">
+      <c r="A746" t="n">
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747">
+    <row r="747">
+      <c r="A747" t="n">
         <v>746</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748">
+    <row r="748">
+      <c r="A748" t="n">
         <v>747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749">
+    <row r="749">
+      <c r="A749" t="n">
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750">
+    <row r="750">
+      <c r="A750" t="n">
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751">
+    <row r="751">
+      <c r="A751" t="n">
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752">
+    <row r="752">
+      <c r="A752" t="n">
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753">
+    <row r="753">
+      <c r="A753" t="n">
         <v>752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754">
+    <row r="754">
+      <c r="A754" t="n">
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755">
+    <row r="755">
+      <c r="A755" t="n">
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756">
+    <row r="756">
+      <c r="A756" t="n">
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757">
+    <row r="757">
+      <c r="A757" t="n">
         <v>756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758">
+    <row r="758">
+      <c r="A758" t="n">
         <v>757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759">
+    <row r="759">
+      <c r="A759" t="n">
         <v>758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760">
+    <row r="760">
+      <c r="A760" t="n">
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761">
+    <row r="761">
+      <c r="A761" t="n">
         <v>760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762">
+    <row r="762">
+      <c r="A762" t="n">
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763">
+    <row r="763">
+      <c r="A763" t="n">
         <v>762</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764">
+    <row r="764">
+      <c r="A764" t="n">
         <v>763</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765">
+    <row r="765">
+      <c r="A765" t="n">
         <v>764</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766">
+    <row r="766">
+      <c r="A766" t="n">
         <v>765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767">
+    <row r="767">
+      <c r="A767" t="n">
         <v>766</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768">
+    <row r="768">
+      <c r="A768" t="n">
         <v>767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769">
+    <row r="769">
+      <c r="A769" t="n">
         <v>768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770">
+    <row r="770">
+      <c r="A770" t="n">
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771">
+    <row r="771">
+      <c r="A771" t="n">
         <v>770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772">
+    <row r="772">
+      <c r="A772" t="n">
         <v>771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773">
+    <row r="773">
+      <c r="A773" t="n">
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774">
+    <row r="774">
+      <c r="A774" t="n">
         <v>773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775">
+    <row r="775">
+      <c r="A775" t="n">
         <v>774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776">
+    <row r="776">
+      <c r="A776" t="n">
         <v>775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777">
+    <row r="777">
+      <c r="A777" t="n">
         <v>776</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778">
+    <row r="778">
+      <c r="A778" t="n">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779">
+    <row r="779">
+      <c r="A779" t="n">
         <v>778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780">
+    <row r="780">
+      <c r="A780" t="n">
         <v>779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781">
+    <row r="781">
+      <c r="A781" t="n">
         <v>780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782">
+    <row r="782">
+      <c r="A782" t="n">
         <v>781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783">
+    <row r="783">
+      <c r="A783" t="n">
         <v>782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784">
+    <row r="784">
+      <c r="A784" t="n">
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785">
+    <row r="785">
+      <c r="A785" t="n">
         <v>784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786">
+    <row r="786">
+      <c r="A786" t="n">
         <v>785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787">
+    <row r="787">
+      <c r="A787" t="n">
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788">
+    <row r="788">
+      <c r="A788" t="n">
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789">
+    <row r="789">
+      <c r="A789" t="n">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790">
+    <row r="790">
+      <c r="A790" t="n">
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791">
+    <row r="791">
+      <c r="A791" t="n">
         <v>790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792">
+    <row r="792">
+      <c r="A792" t="n">
         <v>791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793">
+    <row r="793">
+      <c r="A793" t="n">
         <v>792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794">
+    <row r="794">
+      <c r="A794" t="n">
         <v>793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795">
+    <row r="795">
+      <c r="A795" t="n">
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796">
+    <row r="796">
+      <c r="A796" t="n">
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797">
+    <row r="797">
+      <c r="A797" t="n">
         <v>796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798">
+    <row r="798">
+      <c r="A798" t="n">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799">
+    <row r="799">
+      <c r="A799" t="n">
         <v>798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800">
+    <row r="800">
+      <c r="A800" t="n">
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801">
+    <row r="801">
+      <c r="A801" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802">
+    <row r="802">
+      <c r="A802" t="n">
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803">
+    <row r="803">
+      <c r="A803" t="n">
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804">
+    <row r="804">
+      <c r="A804" t="n">
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805">
+    <row r="805">
+      <c r="A805" t="n">
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806">
+    <row r="806">
+      <c r="A806" t="n">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807">
+    <row r="807">
+      <c r="A807" t="n">
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808">
+    <row r="808">
+      <c r="A808" t="n">
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809">
+    <row r="809">
+      <c r="A809" t="n">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810">
+    <row r="810">
+      <c r="A810" t="n">
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811">
+    <row r="811">
+      <c r="A811" t="n">
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812">
+    <row r="812">
+      <c r="A812" t="n">
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813">
+    <row r="813">
+      <c r="A813" t="n">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814">
+    <row r="814">
+      <c r="A814" t="n">
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815">
+    <row r="815">
+      <c r="A815" t="n">
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816">
+    <row r="816">
+      <c r="A816" t="n">
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817">
+    <row r="817">
+      <c r="A817" t="n">
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818">
+    <row r="818">
+      <c r="A818" t="n">
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819">
+    <row r="819">
+      <c r="A819" t="n">
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820">
+    <row r="820">
+      <c r="A820" t="n">
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821">
+    <row r="821">
+      <c r="A821" t="n">
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822">
+    <row r="822">
+      <c r="A822" t="n">
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823">
+    <row r="823">
+      <c r="A823" t="n">
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824">
+    <row r="824">
+      <c r="A824" t="n">
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825">
+    <row r="825">
+      <c r="A825" t="n">
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826">
+    <row r="826">
+      <c r="A826" t="n">
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827">
+    <row r="827">
+      <c r="A827" t="n">
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828">
+    <row r="828">
+      <c r="A828" t="n">
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829">
+    <row r="829">
+      <c r="A829" t="n">
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830">
+    <row r="830">
+      <c r="A830" t="n">
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831">
+    <row r="831">
+      <c r="A831" t="n">
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832">
+    <row r="832">
+      <c r="A832" t="n">
         <v>831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833">
+    <row r="833">
+      <c r="A833" t="n">
         <v>832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834">
+    <row r="834">
+      <c r="A834" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835">
+    <row r="835">
+      <c r="A835" t="n">
         <v>834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836">
+    <row r="836">
+      <c r="A836" t="n">
         <v>835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837">
+    <row r="837">
+      <c r="A837" t="n">
         <v>836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838">
+    <row r="838">
+      <c r="A838" t="n">
         <v>837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839">
+    <row r="839">
+      <c r="A839" t="n">
         <v>838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840">
+    <row r="840">
+      <c r="A840" t="n">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841">
+    <row r="841">
+      <c r="A841" t="n">
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842">
+    <row r="842">
+      <c r="A842" t="n">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843">
+    <row r="843">
+      <c r="A843" t="n">
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844">
+    <row r="844">
+      <c r="A844" t="n">
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845">
+    <row r="845">
+      <c r="A845" t="n">
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846">
+    <row r="846">
+      <c r="A846" t="n">
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847">
+    <row r="847">
+      <c r="A847" t="n">
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848">
+    <row r="848">
+      <c r="A848" t="n">
         <v>847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849">
+    <row r="849">
+      <c r="A849" t="n">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850">
+    <row r="850">
+      <c r="A850" t="n">
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851">
+    <row r="851">
+      <c r="A851" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852">
+    <row r="852">
+      <c r="A852" t="n">
         <v>851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853">
+    <row r="853">
+      <c r="A853" t="n">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854">
+    <row r="854">
+      <c r="A854" t="n">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855">
+    <row r="855">
+      <c r="A855" t="n">
         <v>854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856">
+    <row r="856">
+      <c r="A856" t="n">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857">
+    <row r="857">
+      <c r="A857" t="n">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858">
+    <row r="858">
+      <c r="A858" t="n">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859">
+    <row r="859">
+      <c r="A859" t="n">
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860">
+    <row r="860">
+      <c r="A860" t="n">
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861">
+    <row r="861">
+      <c r="A861" t="n">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862">
+    <row r="862">
+      <c r="A862" t="n">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863">
+    <row r="863">
+      <c r="A863" t="n">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864">
+    <row r="864">
+      <c r="A864" t="n">
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865">
+    <row r="865">
+      <c r="A865" t="n">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866">
+    <row r="866">
+      <c r="A866" t="n">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867">
+    <row r="867">
+      <c r="A867" t="n">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868">
+    <row r="868">
+      <c r="A868" t="n">
         <v>867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869">
+    <row r="869">
+      <c r="A869" t="n">
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870">
+    <row r="870">
+      <c r="A870" t="n">
         <v>869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871">
+    <row r="871">
+      <c r="A871" t="n">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872">
+    <row r="872">
+      <c r="A872" t="n">
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873">
+    <row r="873">
+      <c r="A873" t="n">
         <v>872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874">
+    <row r="874">
+      <c r="A874" t="n">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875">
+    <row r="875">
+      <c r="A875" t="n">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876">
+    <row r="876">
+      <c r="A876" t="n">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877">
+    <row r="877">
+      <c r="A877" t="n">
         <v>876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878">
+    <row r="878">
+      <c r="A878" t="n">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879">
+    <row r="879">
+      <c r="A879" t="n">
         <v>878</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880">
+    <row r="880">
+      <c r="A880" t="n">
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881">
+    <row r="881">
+      <c r="A881" t="n">
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882">
+    <row r="882">
+      <c r="A882" t="n">
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883">
+    <row r="883">
+      <c r="A883" t="n">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884">
+    <row r="884">
+      <c r="A884" t="n">
         <v>883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885">
+    <row r="885">
+      <c r="A885" t="n">
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886">
+    <row r="886">
+      <c r="A886" t="n">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887">
+    <row r="887">
+      <c r="A887" t="n">
         <v>886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888">
+    <row r="888">
+      <c r="A888" t="n">
         <v>887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889">
+    <row r="889">
+      <c r="A889" t="n">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890">
+    <row r="890">
+      <c r="A890" t="n">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891">
+    <row r="891">
+      <c r="A891" t="n">
         <v>890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892">
+    <row r="892">
+      <c r="A892" t="n">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893">
+    <row r="893">
+      <c r="A893" t="n">
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894">
+    <row r="894">
+      <c r="A894" t="n">
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895">
+    <row r="895">
+      <c r="A895" t="n">
         <v>894</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896">
+    <row r="896">
+      <c r="A896" t="n">
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897">
+    <row r="897">
+      <c r="A897" t="n">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898">
+    <row r="898">
+      <c r="A898" t="n">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899">
+    <row r="899">
+      <c r="A899" t="n">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900">
+    <row r="900">
+      <c r="A900" t="n">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901">
+    <row r="901">
+      <c r="A901" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902">
+    <row r="902">
+      <c r="A902" t="n">
         <v>901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903">
+    <row r="903">
+      <c r="A903" t="n">
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904">
+    <row r="904">
+      <c r="A904" t="n">
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905">
+    <row r="905">
+      <c r="A905" t="n">
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906">
+    <row r="906">
+      <c r="A906" t="n">
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907">
+    <row r="907">
+      <c r="A907" t="n">
         <v>906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908">
+    <row r="908">
+      <c r="A908" t="n">
         <v>907</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909">
+    <row r="909">
+      <c r="A909" t="n">
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910">
+    <row r="910">
+      <c r="A910" t="n">
         <v>909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911">
+    <row r="911">
+      <c r="A911" t="n">
         <v>910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912">
+    <row r="912">
+      <c r="A912" t="n">
         <v>911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913">
+    <row r="913">
+      <c r="A913" t="n">
         <v>912</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914">
+    <row r="914">
+      <c r="A914" t="n">
         <v>913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915">
+    <row r="915">
+      <c r="A915" t="n">
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916">
+    <row r="916">
+      <c r="A916" t="n">
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917">
+    <row r="917">
+      <c r="A917" t="n">
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918">
+    <row r="918">
+      <c r="A918" t="n">
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919">
+    <row r="919">
+      <c r="A919" t="n">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920">
+    <row r="920">
+      <c r="A920" t="n">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921">
+    <row r="921">
+      <c r="A921" t="n">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922">
+    <row r="922">
+      <c r="A922" t="n">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923">
+    <row r="923">
+      <c r="A923" t="n">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924">
+    <row r="924">
+      <c r="A924" t="n">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925">
+    <row r="925">
+      <c r="A925" t="n">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926">
+    <row r="926">
+      <c r="A926" t="n">
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927">
+    <row r="927">
+      <c r="A927" t="n">
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928">
+    <row r="928">
+      <c r="A928" t="n">
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929">
+    <row r="929">
+      <c r="A929" t="n">
         <v>928</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930">
+    <row r="930">
+      <c r="A930" t="n">
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931">
+    <row r="931">
+      <c r="A931" t="n">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932">
+    <row r="932">
+      <c r="A932" t="n">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933">
+    <row r="933">
+      <c r="A933" t="n">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934">
+    <row r="934">
+      <c r="A934" t="n">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935">
+    <row r="935">
+      <c r="A935" t="n">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936">
+    <row r="936">
+      <c r="A936" t="n">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937">
+    <row r="937">
+      <c r="A937" t="n">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938">
+    <row r="938">
+      <c r="A938" t="n">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939">
+    <row r="939">
+      <c r="A939" t="n">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940">
+    <row r="940">
+      <c r="A940" t="n">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941">
+    <row r="941">
+      <c r="A941" t="n">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942">
+    <row r="942">
+      <c r="A942" t="n">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943">
+    <row r="943">
+      <c r="A943" t="n">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944">
+    <row r="944">
+      <c r="A944" t="n">
         <v>943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945">
+    <row r="945">
+      <c r="A945" t="n">
         <v>944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946">
+    <row r="946">
+      <c r="A946" t="n">
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947">
+    <row r="947">
+      <c r="A947" t="n">
         <v>946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948">
+    <row r="948">
+      <c r="A948" t="n">
         <v>947</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949">
+    <row r="949">
+      <c r="A949" t="n">
         <v>948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950">
+    <row r="950">
+      <c r="A950" t="n">
         <v>949</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951">
+    <row r="951">
+      <c r="A951" t="n">
         <v>950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952">
+    <row r="952">
+      <c r="A952" t="n">
         <v>951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953">
+    <row r="953">
+      <c r="A953" t="n">
         <v>952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954">
+    <row r="954">
+      <c r="A954" t="n">
         <v>953</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955">
+    <row r="955">
+      <c r="A955" t="n">
         <v>954</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956">
+    <row r="956">
+      <c r="A956" t="n">
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957">
+    <row r="957">
+      <c r="A957" t="n">
         <v>956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958">
+    <row r="958">
+      <c r="A958" t="n">
         <v>957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959">
+    <row r="959">
+      <c r="A959" t="n">
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960">
+    <row r="960">
+      <c r="A960" t="n">
         <v>959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961">
+    <row r="961">
+      <c r="A961" t="n">
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962">
+    <row r="962">
+      <c r="A962" t="n">
         <v>961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963">
+    <row r="963">
+      <c r="A963" t="n">
         <v>962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964">
+    <row r="964">
+      <c r="A964" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965">
+    <row r="965">
+      <c r="A965" t="n">
         <v>964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966">
+    <row r="966">
+      <c r="A966" t="n">
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967">
+    <row r="967">
+      <c r="A967" t="n">
         <v>966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968">
+    <row r="968">
+      <c r="A968" t="n">
         <v>967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969">
+    <row r="969">
+      <c r="A969" t="n">
         <v>968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970">
+    <row r="970">
+      <c r="A970" t="n">
         <v>969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971">
+    <row r="971">
+      <c r="A971" t="n">
         <v>970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972">
+    <row r="972">
+      <c r="A972" t="n">
         <v>971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973">
+    <row r="973">
+      <c r="A973" t="n">
         <v>972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974">
+    <row r="974">
+      <c r="A974" t="n">
         <v>973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975">
+    <row r="975">
+      <c r="A975" t="n">
         <v>974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976">
+    <row r="976">
+      <c r="A976" t="n">
         <v>975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977">
+    <row r="977">
+      <c r="A977" t="n">
         <v>976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978">
+    <row r="978">
+      <c r="A978" t="n">
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979">
+    <row r="979">
+      <c r="A979" t="n">
         <v>978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980">
+    <row r="980">
+      <c r="A980" t="n">
         <v>979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981">
+    <row r="981">
+      <c r="A981" t="n">
         <v>980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982">
+    <row r="982">
+      <c r="A982" t="n">
         <v>981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983">
+    <row r="983">
+      <c r="A983" t="n">
         <v>982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984">
+    <row r="984">
+      <c r="A984" t="n">
         <v>983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985">
+    <row r="985">
+      <c r="A985" t="n">
         <v>984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986">
+    <row r="986">
+      <c r="A986" t="n">
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987">
+    <row r="987">
+      <c r="A987" t="n">
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988">
+    <row r="988">
+      <c r="A988" t="n">
         <v>987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989">
+    <row r="989">
+      <c r="A989" t="n">
         <v>988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990">
+    <row r="990">
+      <c r="A990" t="n">
         <v>989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991">
+    <row r="991">
+      <c r="A991" t="n">
         <v>990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992">
+    <row r="992">
+      <c r="A992" t="n">
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993">
+    <row r="993">
+      <c r="A993" t="n">
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994">
+    <row r="994">
+      <c r="A994" t="n">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995">
+    <row r="995">
+      <c r="A995" t="n">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996">
+    <row r="996">
+      <c r="A996" t="n">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997">
+    <row r="997">
+      <c r="A997" t="n">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998">
+    <row r="998">
+      <c r="A998" t="n">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999">
+    <row r="999">
+      <c r="A999" t="n">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000">
+    <row r="1000">
+      <c r="A1000" t="n">
         <v>999</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001">
+    <row r="1001">
+      <c r="A1001" t="n">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/respuestas/registro/registro.xlsx
+++ b/respuestas/registro/registro.xlsx
@@ -642,10 +642,110 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sdasdasd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sdasdasd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
       </c>
     </row>
     <row r="6">
